--- a/COMBOS DESDE EL 22 DE ENERO EN ADELANTE.xlsx
+++ b/COMBOS DESDE EL 22 DE ENERO EN ADELANTE.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="40">
   <si>
     <t>COMERCIO INTERNACIONAL DE CARNES 11 SUR</t>
   </si>
@@ -117,16 +117,44 @@
   </si>
   <si>
     <t>PERNIL C/CUERO</t>
+  </si>
+  <si>
+    <t>PACO TIENDA</t>
+  </si>
+  <si>
+    <t>FECHA</t>
+  </si>
+  <si>
+    <t>YOLANDA NEAL</t>
+  </si>
+  <si>
+    <t>BENITO TIENDA</t>
+  </si>
+  <si>
+    <t>CLAVIJERO</t>
+  </si>
+  <si>
+    <t>TAVO</t>
+  </si>
+  <si>
+    <t>PABLO TIENDA</t>
+  </si>
+  <si>
+    <t>WHOLESTONE</t>
+  </si>
+  <si>
+    <t>EDGAR</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="168" formatCode="dd\-mm\-yy;@"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -134,13 +162,28 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -183,7 +226,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -191,8 +234,8 @@
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -200,10 +243,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -284,7 +344,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -322,7 +382,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -612,8 +672,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I132"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" topLeftCell="A90" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H117" sqref="H117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -621,8 +681,9 @@
     <col min="1" max="1" width="6.7109375" customWidth="1"/>
     <col min="2" max="2" width="9.5703125" customWidth="1"/>
     <col min="4" max="4" width="9.42578125" customWidth="1"/>
-    <col min="5" max="5" width="8" customWidth="1"/>
-    <col min="6" max="6" width="20" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" style="13" customWidth="1"/>
+    <col min="7" max="7" width="16.5703125" style="14" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -643,7 +704,7 @@
       <c r="A3" s="1">
         <v>20</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -651,11 +712,11 @@
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
-      <c r="F3" s="5">
+      <c r="F3" s="8">
         <v>45313</v>
       </c>
-      <c r="G3" s="5"/>
-      <c r="H3" s="1"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
       <c r="I3" s="1"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -666,8 +727,8 @@
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="15"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
@@ -681,16 +742,18 @@
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
-      <c r="F5" s="1" t="s">
+      <c r="F5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="G5" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="I5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I5" s="1"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
@@ -708,9 +771,15 @@
       <c r="E6" s="3">
         <v>1.21</v>
       </c>
-      <c r="F6" s="1"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="1"/>
+      <c r="F6" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G6" s="15">
+        <v>45315</v>
+      </c>
+      <c r="H6" s="4">
+        <v>7590</v>
+      </c>
       <c r="I6" s="1"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -729,9 +798,15 @@
       <c r="E7" s="3">
         <v>-0.39</v>
       </c>
-      <c r="F7" s="1"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="1"/>
+      <c r="F7" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G7" s="15">
+        <v>45315</v>
+      </c>
+      <c r="H7" s="4">
+        <v>7590</v>
+      </c>
       <c r="I7" s="1"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -750,12 +825,18 @@
       <c r="E8" s="3">
         <v>1.1100000000000001</v>
       </c>
-      <c r="F8" s="1"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="1"/>
+      <c r="F8" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G8" s="15">
+        <v>45315</v>
+      </c>
+      <c r="H8" s="4">
+        <v>7590</v>
+      </c>
       <c r="I8" s="1"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>4</v>
       </c>
@@ -771,12 +852,18 @@
       <c r="E9" s="3">
         <v>0.61</v>
       </c>
-      <c r="F9" s="1"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="1"/>
+      <c r="F9" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G9" s="15">
+        <v>45316</v>
+      </c>
+      <c r="H9" s="4">
+        <v>7594</v>
+      </c>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>5</v>
       </c>
@@ -792,16 +879,18 @@
       <c r="E10" s="3">
         <v>-0.59</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="F10" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="G10" s="4">
+      <c r="G10" s="15">
+        <v>45314</v>
+      </c>
+      <c r="H10" s="4">
         <v>7582</v>
       </c>
-      <c r="H10" s="1"/>
       <c r="I10" s="1"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>6</v>
       </c>
@@ -817,16 +906,18 @@
       <c r="E11" s="3">
         <v>-0.49</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="F11" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="G11" s="4">
+      <c r="G11" s="15">
+        <v>45314</v>
+      </c>
+      <c r="H11" s="4">
         <v>7581</v>
       </c>
-      <c r="H11" s="1"/>
       <c r="I11" s="1"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>7</v>
       </c>
@@ -842,9 +933,15 @@
       <c r="E12" s="3">
         <v>0.71</v>
       </c>
-      <c r="F12" s="1"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="1"/>
+      <c r="F12" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="G12" s="15">
+        <v>45315</v>
+      </c>
+      <c r="H12" s="4">
+        <v>7591</v>
+      </c>
       <c r="I12" s="1"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -863,12 +960,18 @@
       <c r="E13" s="3">
         <v>2.41</v>
       </c>
-      <c r="F13" s="1"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="1"/>
+      <c r="F13" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G13" s="15">
+        <v>45315</v>
+      </c>
+      <c r="H13" s="4">
+        <v>7590</v>
+      </c>
       <c r="I13" s="1"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>9</v>
       </c>
@@ -884,12 +987,18 @@
       <c r="E14" s="3">
         <v>-1.99</v>
       </c>
-      <c r="F14" s="1"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="1"/>
+      <c r="F14" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G14" s="15">
+        <v>45316</v>
+      </c>
+      <c r="H14" s="4">
+        <v>7600</v>
+      </c>
       <c r="I14" s="1"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>10</v>
       </c>
@@ -905,12 +1014,18 @@
       <c r="E15" s="3">
         <v>0.61</v>
       </c>
-      <c r="F15" s="1"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="1"/>
+      <c r="F15" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G15" s="15">
+        <v>45316</v>
+      </c>
+      <c r="H15" s="4">
+        <v>7594</v>
+      </c>
       <c r="I15" s="1"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>11</v>
       </c>
@@ -926,12 +1041,18 @@
       <c r="E16" s="3">
         <v>-0.09</v>
       </c>
-      <c r="F16" s="1"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="1"/>
+      <c r="F16" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G16" s="15">
+        <v>45316</v>
+      </c>
+      <c r="H16" s="4">
+        <v>7594</v>
+      </c>
       <c r="I16" s="1"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>12</v>
       </c>
@@ -947,12 +1068,18 @@
       <c r="E17" s="3">
         <v>1.01</v>
       </c>
-      <c r="F17" s="1"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="1"/>
+      <c r="F17" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G17" s="15">
+        <v>45316</v>
+      </c>
+      <c r="H17" s="4">
+        <v>7594</v>
+      </c>
       <c r="I17" s="1"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>13</v>
       </c>
@@ -968,16 +1095,18 @@
       <c r="E18" s="3">
         <v>-0.09</v>
       </c>
-      <c r="F18" s="1" t="s">
+      <c r="F18" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="G18" s="4">
+      <c r="G18" s="15">
+        <v>45314</v>
+      </c>
+      <c r="H18" s="4">
         <v>7584</v>
       </c>
-      <c r="H18" s="1"/>
       <c r="I18" s="1"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>14</v>
       </c>
@@ -993,13 +1122,15 @@
       <c r="E19" s="3">
         <v>1.01</v>
       </c>
-      <c r="F19" s="1" t="s">
+      <c r="F19" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="G19" s="4">
+      <c r="G19" s="15">
+        <v>45314</v>
+      </c>
+      <c r="H19" s="4">
         <v>7584</v>
       </c>
-      <c r="H19" s="1"/>
       <c r="I19" s="1"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
@@ -1018,16 +1149,18 @@
       <c r="E20" s="3">
         <v>1.61</v>
       </c>
-      <c r="F20" s="1" t="s">
+      <c r="F20" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="G20" s="4">
+      <c r="G20" s="15">
+        <v>45314</v>
+      </c>
+      <c r="H20" s="4">
         <v>7585</v>
       </c>
-      <c r="H20" s="1"/>
       <c r="I20" s="1"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>16</v>
       </c>
@@ -1043,16 +1176,18 @@
       <c r="E21" s="3">
         <v>0.51</v>
       </c>
-      <c r="F21" s="1" t="s">
+      <c r="F21" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="G21" s="4">
+      <c r="G21" s="15">
+        <v>45314</v>
+      </c>
+      <c r="H21" s="4">
         <v>7584</v>
       </c>
-      <c r="H21" s="1"/>
       <c r="I21" s="1"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>17</v>
       </c>
@@ -1068,16 +1203,18 @@
       <c r="E22" s="3">
         <v>-0.39</v>
       </c>
-      <c r="F22" s="1" t="s">
+      <c r="F22" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="G22" s="4">
+      <c r="G22" s="15">
+        <v>45314</v>
+      </c>
+      <c r="H22" s="4">
         <v>7584</v>
       </c>
-      <c r="H22" s="1"/>
       <c r="I22" s="1"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>18</v>
       </c>
@@ -1093,16 +1230,18 @@
       <c r="E23" s="3">
         <v>0.41</v>
       </c>
-      <c r="F23" s="1" t="s">
+      <c r="F23" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="G23" s="4">
+      <c r="G23" s="15">
+        <v>45314</v>
+      </c>
+      <c r="H23" s="4">
         <v>7581</v>
       </c>
-      <c r="H23" s="1"/>
       <c r="I23" s="1"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>19</v>
       </c>
@@ -1118,16 +1257,18 @@
       <c r="E24" s="3">
         <v>-0.09</v>
       </c>
-      <c r="F24" s="1" t="s">
+      <c r="F24" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="G24" s="4">
+      <c r="G24" s="15">
+        <v>45314</v>
+      </c>
+      <c r="H24" s="4">
         <v>7581</v>
       </c>
-      <c r="H24" s="1"/>
       <c r="I24" s="1"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>20</v>
       </c>
@@ -1143,13 +1284,15 @@
       <c r="E25" s="3">
         <v>-1.29</v>
       </c>
-      <c r="F25" s="1" t="s">
+      <c r="F25" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="G25" s="4">
+      <c r="G25" s="15">
+        <v>45314</v>
+      </c>
+      <c r="H25" s="4">
         <v>7582</v>
       </c>
-      <c r="H25" s="1"/>
       <c r="I25" s="1"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
@@ -1162,8 +1305,8 @@
       <c r="E26" s="3">
         <v>0</v>
       </c>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="15"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
     </row>
@@ -1175,8 +1318,8 @@
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="15"/>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
     </row>
@@ -1188,8 +1331,8 @@
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="15"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
     </row>
@@ -1201,8 +1344,8 @@
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="15"/>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
     </row>
@@ -1223,8 +1366,8 @@
         <f>SUM(E6:E29)</f>
         <v>5.8000000000000007</v>
       </c>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="15"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
     </row>
@@ -1238,8 +1381,8 @@
       </c>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="15"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
     </row>
@@ -1253,8 +1396,9 @@
       </c>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="15"/>
+      <c r="H33" s="1"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
@@ -1264,8 +1408,9 @@
       </c>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="15"/>
+      <c r="H34" s="1"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
@@ -1275,8 +1420,9 @@
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="15"/>
+      <c r="H35" s="1"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
@@ -1286,8 +1432,9 @@
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
+      <c r="F36" s="5"/>
+      <c r="G36" s="15"/>
+      <c r="H36" s="1"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
@@ -1297,8 +1444,9 @@
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
+      <c r="F37" s="5"/>
+      <c r="G37" s="15"/>
+      <c r="H37" s="1"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
@@ -1310,8 +1458,9 @@
       <c r="E38" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F38" s="1"/>
-      <c r="G38" s="1"/>
+      <c r="F38" s="5"/>
+      <c r="G38" s="15"/>
+      <c r="H38" s="1"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
@@ -1323,8 +1472,9 @@
       <c r="E39" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F39" s="1"/>
-      <c r="G39" s="1"/>
+      <c r="F39" s="5"/>
+      <c r="G39" s="15"/>
+      <c r="H39" s="1"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
@@ -1332,8 +1482,9 @@
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
-      <c r="F40" s="1"/>
-      <c r="G40" s="1"/>
+      <c r="F40" s="5"/>
+      <c r="G40" s="15"/>
+      <c r="H40" s="1"/>
     </row>
     <row r="45" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
@@ -1354,7 +1505,7 @@
       <c r="A48" s="1">
         <v>20</v>
       </c>
-      <c r="B48" s="9" t="s">
+      <c r="B48" s="5" t="s">
         <v>30</v>
       </c>
       <c r="C48" s="1" t="s">
@@ -1362,11 +1513,11 @@
       </c>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
-      <c r="F48" s="8">
+      <c r="F48" s="9">
         <v>45314</v>
       </c>
-      <c r="G48" s="8"/>
-      <c r="H48" s="1"/>
+      <c r="G48" s="9"/>
+      <c r="H48" s="9"/>
       <c r="I48" s="1"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
@@ -1377,10 +1528,10 @@
       </c>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
-      <c r="F49" s="1" t="s">
+      <c r="F49" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="G49" s="1"/>
+      <c r="G49" s="15"/>
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
     </row>
@@ -1394,14 +1545,12 @@
       </c>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
-      <c r="F50" s="1" t="s">
+      <c r="F50" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="G50" s="1" t="s">
+      <c r="G50" s="15"/>
+      <c r="H50" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="H50" s="1" t="s">
-        <v>17</v>
       </c>
       <c r="I50" s="1"/>
     </row>
@@ -1421,9 +1570,9 @@
       <c r="E51" s="3">
         <v>-0.12</v>
       </c>
-      <c r="F51" s="1"/>
-      <c r="G51" s="4"/>
-      <c r="H51" s="1"/>
+      <c r="F51" s="5"/>
+      <c r="G51" s="15"/>
+      <c r="H51" s="4"/>
       <c r="I51" s="1"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
@@ -1442,9 +1591,9 @@
       <c r="E52" s="3">
         <v>-4.0199999999999996</v>
       </c>
-      <c r="F52" s="1"/>
-      <c r="G52" s="4"/>
-      <c r="H52" s="1"/>
+      <c r="F52" s="5"/>
+      <c r="G52" s="15"/>
+      <c r="H52" s="4"/>
       <c r="I52" s="1"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
@@ -1463,9 +1612,9 @@
       <c r="E53" s="3">
         <v>-0.42</v>
       </c>
-      <c r="F53" s="1"/>
-      <c r="G53" s="4"/>
-      <c r="H53" s="1"/>
+      <c r="F53" s="5"/>
+      <c r="G53" s="15"/>
+      <c r="H53" s="4"/>
       <c r="I53" s="1"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
@@ -1484,9 +1633,9 @@
       <c r="E54" s="3">
         <v>-1.22</v>
       </c>
-      <c r="F54" s="1"/>
-      <c r="G54" s="4"/>
-      <c r="H54" s="1"/>
+      <c r="F54" s="5"/>
+      <c r="G54" s="15"/>
+      <c r="H54" s="4"/>
       <c r="I54" s="1"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
@@ -1505,9 +1654,9 @@
       <c r="E55" s="3">
         <v>-5.62</v>
       </c>
-      <c r="F55" s="1"/>
-      <c r="G55" s="4"/>
-      <c r="H55" s="1"/>
+      <c r="F55" s="5"/>
+      <c r="G55" s="15"/>
+      <c r="H55" s="4"/>
       <c r="I55" s="1"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
@@ -1526,9 +1675,9 @@
       <c r="E56" s="3">
         <v>-3.72</v>
       </c>
-      <c r="F56" s="1"/>
-      <c r="G56" s="4"/>
-      <c r="H56" s="1"/>
+      <c r="F56" s="5"/>
+      <c r="G56" s="15"/>
+      <c r="H56" s="4"/>
       <c r="I56" s="1"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
@@ -1547,12 +1696,12 @@
       <c r="E57" s="3">
         <v>-0.92</v>
       </c>
-      <c r="F57" s="1"/>
-      <c r="G57" s="4"/>
-      <c r="H57" s="1"/>
+      <c r="F57" s="5"/>
+      <c r="G57" s="15"/>
+      <c r="H57" s="4"/>
       <c r="I57" s="1"/>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>8</v>
       </c>
@@ -1568,9 +1717,15 @@
       <c r="E58" s="3">
         <v>-3.02</v>
       </c>
-      <c r="F58" s="1"/>
-      <c r="G58" s="4"/>
-      <c r="H58" s="1"/>
+      <c r="F58" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G58" s="15">
+        <v>45316</v>
+      </c>
+      <c r="H58" s="4">
+        <v>7596</v>
+      </c>
       <c r="I58" s="1"/>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
@@ -1589,9 +1744,15 @@
       <c r="E59" s="3">
         <v>-5.22</v>
       </c>
-      <c r="F59" s="1"/>
-      <c r="G59" s="4"/>
-      <c r="H59" s="1"/>
+      <c r="F59" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G59" s="15">
+        <v>45316</v>
+      </c>
+      <c r="H59" s="4">
+        <v>7597</v>
+      </c>
       <c r="I59" s="1"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
@@ -1610,16 +1771,18 @@
       <c r="E60" s="3">
         <v>-3.72</v>
       </c>
-      <c r="F60" s="1" t="s">
+      <c r="F60" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="G60" s="4">
+      <c r="G60" s="15">
+        <v>45314</v>
+      </c>
+      <c r="H60" s="4">
         <v>7586</v>
       </c>
-      <c r="H60" s="1"/>
       <c r="I60" s="1"/>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>11</v>
       </c>
@@ -1635,12 +1798,18 @@
       <c r="E61" s="3">
         <v>-0.12</v>
       </c>
-      <c r="F61" s="1"/>
-      <c r="G61" s="4"/>
-      <c r="H61" s="1"/>
+      <c r="F61" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="G61" s="15">
+        <v>45316</v>
+      </c>
+      <c r="H61" s="4">
+        <v>7596</v>
+      </c>
       <c r="I61" s="1"/>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>12</v>
       </c>
@@ -1656,12 +1825,18 @@
       <c r="E62" s="3">
         <v>-3.82</v>
       </c>
-      <c r="F62" s="1"/>
-      <c r="G62" s="4"/>
-      <c r="H62" s="1"/>
+      <c r="F62" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G62" s="15">
+        <v>45314</v>
+      </c>
+      <c r="H62" s="4">
+        <v>7589</v>
+      </c>
       <c r="I62" s="1"/>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>13</v>
       </c>
@@ -1677,16 +1852,18 @@
       <c r="E63" s="3">
         <v>-2.52</v>
       </c>
-      <c r="F63" s="1" t="s">
+      <c r="F63" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="G63" s="4">
+      <c r="G63" s="15">
+        <v>45314</v>
+      </c>
+      <c r="H63" s="4">
         <v>7589</v>
       </c>
-      <c r="H63" s="1"/>
       <c r="I63" s="1"/>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>14</v>
       </c>
@@ -1702,12 +1879,18 @@
       <c r="E64" s="3">
         <v>0.78</v>
       </c>
-      <c r="F64" s="1"/>
-      <c r="G64" s="4"/>
-      <c r="H64" s="1"/>
+      <c r="F64" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G64" s="15">
+        <v>45316</v>
+      </c>
+      <c r="H64" s="4">
+        <v>7596</v>
+      </c>
       <c r="I64" s="1"/>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>15</v>
       </c>
@@ -1723,16 +1906,18 @@
       <c r="E65" s="3">
         <v>-4.5199999999999996</v>
       </c>
-      <c r="F65" s="1" t="s">
+      <c r="F65" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="G65" s="4">
+      <c r="G65" s="15">
+        <v>45314</v>
+      </c>
+      <c r="H65" s="4">
         <v>7589</v>
       </c>
-      <c r="H65" s="1"/>
       <c r="I65" s="1"/>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>16</v>
       </c>
@@ -1748,13 +1933,15 @@
       <c r="E66" s="3">
         <v>-4.62</v>
       </c>
-      <c r="F66" s="1" t="s">
+      <c r="F66" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="G66" s="4">
+      <c r="G66" s="15">
+        <v>45314</v>
+      </c>
+      <c r="H66" s="4">
         <v>7587</v>
       </c>
-      <c r="H66" s="1"/>
       <c r="I66" s="1"/>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
@@ -1773,12 +1960,18 @@
       <c r="E67" s="3">
         <v>-1.1200000000000001</v>
       </c>
-      <c r="F67" s="1"/>
-      <c r="G67" s="4"/>
-      <c r="H67" s="1"/>
+      <c r="F67" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G67" s="15">
+        <v>45316</v>
+      </c>
+      <c r="H67" s="4">
+        <v>7595</v>
+      </c>
       <c r="I67" s="1"/>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>18</v>
       </c>
@@ -1794,13 +1987,15 @@
       <c r="E68" s="3">
         <v>-2.42</v>
       </c>
-      <c r="F68" s="1" t="s">
+      <c r="F68" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="G68" s="4">
+      <c r="G68" s="15">
+        <v>45314</v>
+      </c>
+      <c r="H68" s="4">
         <v>7588</v>
       </c>
-      <c r="H68" s="1"/>
       <c r="I68" s="1"/>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
@@ -1819,9 +2014,9 @@
       <c r="E69" s="3">
         <v>-4.72</v>
       </c>
-      <c r="F69" s="1"/>
-      <c r="G69" s="4"/>
-      <c r="H69" s="1"/>
+      <c r="F69" s="5"/>
+      <c r="G69" s="15"/>
+      <c r="H69" s="4"/>
       <c r="I69" s="1"/>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
@@ -1840,13 +2035,15 @@
       <c r="E70" s="3">
         <v>-3.02</v>
       </c>
-      <c r="F70" s="1" t="s">
+      <c r="F70" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="G70" s="4">
+      <c r="G70" s="15">
+        <v>45314</v>
+      </c>
+      <c r="H70" s="4">
         <v>7585</v>
       </c>
-      <c r="H70" s="1"/>
       <c r="I70" s="1"/>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
@@ -1865,13 +2062,15 @@
       <c r="E71" s="3">
         <v>-5.12</v>
       </c>
-      <c r="F71" s="1" t="s">
+      <c r="F71" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="G71" s="4">
+      <c r="G71" s="15">
+        <v>45314</v>
+      </c>
+      <c r="H71" s="4">
         <v>7585</v>
       </c>
-      <c r="H71" s="1"/>
       <c r="I71" s="1"/>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
@@ -1882,8 +2081,8 @@
       <c r="C72" s="2"/>
       <c r="D72" s="3"/>
       <c r="E72" s="1"/>
-      <c r="F72" s="1"/>
-      <c r="G72" s="1"/>
+      <c r="F72" s="5"/>
+      <c r="G72" s="15"/>
       <c r="H72" s="1"/>
       <c r="I72" s="1"/>
     </row>
@@ -1895,8 +2094,8 @@
       <c r="C73" s="2"/>
       <c r="D73" s="3"/>
       <c r="E73" s="1"/>
-      <c r="F73" s="1"/>
-      <c r="G73" s="1"/>
+      <c r="F73" s="5"/>
+      <c r="G73" s="15"/>
       <c r="H73" s="1"/>
       <c r="I73" s="1"/>
     </row>
@@ -1908,8 +2107,8 @@
       <c r="C74" s="2"/>
       <c r="D74" s="3"/>
       <c r="E74" s="1"/>
-      <c r="F74" s="1"/>
-      <c r="G74" s="1"/>
+      <c r="F74" s="5"/>
+      <c r="G74" s="15"/>
       <c r="H74" s="1"/>
       <c r="I74" s="1"/>
     </row>
@@ -1931,8 +2130,8 @@
       <c r="E75" s="3">
         <v>59.29</v>
       </c>
-      <c r="F75" s="1"/>
-      <c r="G75" s="1"/>
+      <c r="F75" s="5"/>
+      <c r="G75" s="15"/>
       <c r="H75" s="1"/>
       <c r="I75" s="1"/>
     </row>
@@ -1948,8 +2147,8 @@
         <v>27</v>
       </c>
       <c r="E76" s="1"/>
-      <c r="F76" s="1"/>
-      <c r="G76" s="1"/>
+      <c r="F76" s="5"/>
+      <c r="G76" s="15"/>
       <c r="H76" s="1"/>
       <c r="I76" s="1"/>
     </row>
@@ -1965,8 +2164,9 @@
         <v>27</v>
       </c>
       <c r="E78" s="1"/>
-      <c r="F78" s="1"/>
-      <c r="G78" s="1"/>
+      <c r="F78" s="5"/>
+      <c r="G78" s="15"/>
+      <c r="H78" s="1"/>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" s="1"/>
@@ -1980,8 +2180,9 @@
         <v>27</v>
       </c>
       <c r="E79" s="1"/>
-      <c r="F79" s="1"/>
-      <c r="G79" s="1"/>
+      <c r="F79" s="5"/>
+      <c r="G79" s="15"/>
+      <c r="H79" s="1"/>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" s="1"/>
@@ -1989,8 +2190,9 @@
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
       <c r="E80" s="1"/>
-      <c r="F80" s="1"/>
-      <c r="G80" s="1"/>
+      <c r="F80" s="5"/>
+      <c r="G80" s="15"/>
+      <c r="H80" s="1"/>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" s="1"/>
@@ -2000,21 +2202,23 @@
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
       <c r="E81" s="1"/>
-      <c r="F81" s="1"/>
-      <c r="G81" s="1"/>
+      <c r="F81" s="5"/>
+      <c r="G81" s="15"/>
+      <c r="H81" s="1"/>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B82" s="1">
+      <c r="B82" s="12">
         <v>18601.21</v>
       </c>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
       <c r="E82" s="1"/>
-      <c r="F82" s="1"/>
-      <c r="G82" s="1"/>
+      <c r="F82" s="5"/>
+      <c r="G82" s="15"/>
+      <c r="H82" s="1"/>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" s="1"/>
@@ -2022,8 +2226,9 @@
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
       <c r="E83" s="1"/>
-      <c r="F83" s="1"/>
-      <c r="G83" s="1"/>
+      <c r="F83" s="5"/>
+      <c r="G83" s="15"/>
+      <c r="H83" s="1"/>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" s="1"/>
@@ -2033,8 +2238,9 @@
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
       <c r="E84" s="1"/>
-      <c r="F84" s="1"/>
-      <c r="G84" s="1"/>
+      <c r="F84" s="5"/>
+      <c r="G84" s="15"/>
+      <c r="H84" s="1"/>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" s="1"/>
@@ -2046,8 +2252,9 @@
       <c r="E85" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F85" s="1"/>
-      <c r="G85" s="1"/>
+      <c r="F85" s="5"/>
+      <c r="G85" s="15"/>
+      <c r="H85" s="1"/>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" s="1"/>
@@ -2059,8 +2266,9 @@
       <c r="E86" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F86" s="1"/>
-      <c r="G86" s="1"/>
+      <c r="F86" s="5"/>
+      <c r="G86" s="15"/>
+      <c r="H86" s="1"/>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B92" s="6" t="s">
@@ -2080,19 +2288,19 @@
       <c r="A94" s="1">
         <v>20</v>
       </c>
-      <c r="B94" s="9" t="s">
+      <c r="B94" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C94" s="1" t="s">
-        <v>20</v>
+      <c r="C94" s="5" t="s">
+        <v>38</v>
       </c>
       <c r="D94" s="1"/>
       <c r="E94" s="1"/>
-      <c r="F94" s="8">
+      <c r="F94" s="9">
         <v>45315</v>
       </c>
-      <c r="G94" s="8"/>
-      <c r="H94" s="1"/>
+      <c r="G94" s="9"/>
+      <c r="H94" s="9"/>
       <c r="I94" s="1"/>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.25">
@@ -2103,10 +2311,10 @@
       </c>
       <c r="D95" s="1"/>
       <c r="E95" s="1"/>
-      <c r="F95" s="1" t="s">
+      <c r="F95" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="G95" s="1"/>
+      <c r="G95" s="15"/>
       <c r="H95" s="1"/>
       <c r="I95" s="1"/>
     </row>
@@ -2120,14 +2328,14 @@
       </c>
       <c r="D96" s="1"/>
       <c r="E96" s="1"/>
-      <c r="F96" s="1" t="s">
+      <c r="F96" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="G96" s="1" t="s">
+      <c r="G96" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="H96" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="H96" s="1" t="s">
-        <v>17</v>
       </c>
       <c r="I96" s="1"/>
     </row>
@@ -2135,273 +2343,471 @@
       <c r="A97" s="1">
         <v>1</v>
       </c>
-      <c r="B97" s="3"/>
-      <c r="C97" s="2"/>
-      <c r="D97" s="3"/>
-      <c r="E97" s="3"/>
-      <c r="F97" s="1"/>
-      <c r="G97" s="4"/>
-      <c r="H97" s="1"/>
+      <c r="B97" s="3">
+        <v>891</v>
+      </c>
+      <c r="C97" s="2">
+        <v>53</v>
+      </c>
+      <c r="D97" s="3">
+        <v>915.2</v>
+      </c>
+      <c r="E97" s="3">
+        <v>0.16</v>
+      </c>
+      <c r="F97" s="5"/>
+      <c r="G97" s="15"/>
+      <c r="H97" s="4"/>
       <c r="I97" s="1"/>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>2</v>
       </c>
-      <c r="B98" s="3"/>
-      <c r="C98" s="2"/>
-      <c r="D98" s="3"/>
-      <c r="E98" s="3"/>
-      <c r="F98" s="1"/>
-      <c r="G98" s="4"/>
-      <c r="H98" s="1"/>
+      <c r="B98" s="3">
+        <v>947</v>
+      </c>
+      <c r="C98" s="2">
+        <v>53</v>
+      </c>
+      <c r="D98" s="3">
+        <v>969.6</v>
+      </c>
+      <c r="E98" s="3">
+        <v>-1.44</v>
+      </c>
+      <c r="F98" s="5"/>
+      <c r="G98" s="15"/>
+      <c r="H98" s="4"/>
       <c r="I98" s="1"/>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>3</v>
       </c>
-      <c r="B99" s="3"/>
-      <c r="C99" s="2"/>
-      <c r="D99" s="3"/>
-      <c r="E99" s="3"/>
-      <c r="F99" s="1"/>
-      <c r="G99" s="4"/>
-      <c r="H99" s="1"/>
+      <c r="B99" s="3">
+        <v>826</v>
+      </c>
+      <c r="C99" s="2">
+        <v>53</v>
+      </c>
+      <c r="D99" s="3">
+        <v>838.6</v>
+      </c>
+      <c r="E99" s="3">
+        <v>-11.44</v>
+      </c>
+      <c r="F99" s="5"/>
+      <c r="G99" s="15"/>
+      <c r="H99" s="4"/>
       <c r="I99" s="1"/>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>4</v>
       </c>
-      <c r="B100" s="3"/>
-      <c r="C100" s="2"/>
-      <c r="D100" s="3"/>
-      <c r="E100" s="3"/>
-      <c r="F100" s="1"/>
-      <c r="G100" s="4"/>
-      <c r="H100" s="1"/>
+      <c r="B100" s="3">
+        <v>838</v>
+      </c>
+      <c r="C100" s="2">
+        <v>53</v>
+      </c>
+      <c r="D100" s="3">
+        <v>850.8</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-11.24</v>
+      </c>
+      <c r="F100" s="5"/>
+      <c r="G100" s="15"/>
+      <c r="H100" s="4"/>
       <c r="I100" s="1"/>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>5</v>
       </c>
-      <c r="B101" s="3"/>
-      <c r="C101" s="2"/>
-      <c r="D101" s="3"/>
-      <c r="E101" s="3"/>
-      <c r="F101" s="1"/>
-      <c r="G101" s="4"/>
-      <c r="H101" s="1"/>
+      <c r="B101" s="3">
+        <v>880</v>
+      </c>
+      <c r="C101" s="2">
+        <v>53</v>
+      </c>
+      <c r="D101" s="3">
+        <v>881.8</v>
+      </c>
+      <c r="E101" s="3">
+        <v>-22.24</v>
+      </c>
+      <c r="F101" s="5"/>
+      <c r="G101" s="15"/>
+      <c r="H101" s="4"/>
       <c r="I101" s="1"/>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>6</v>
       </c>
-      <c r="B102" s="3"/>
-      <c r="C102" s="2"/>
-      <c r="D102" s="3"/>
-      <c r="E102" s="3"/>
-      <c r="F102" s="1"/>
-      <c r="G102" s="4"/>
-      <c r="H102" s="1"/>
+      <c r="B102" s="3">
+        <v>774</v>
+      </c>
+      <c r="C102" s="2">
+        <v>53</v>
+      </c>
+      <c r="D102" s="3">
+        <v>811</v>
+      </c>
+      <c r="E102" s="3">
+        <v>12.96</v>
+      </c>
+      <c r="F102" s="5"/>
+      <c r="G102" s="15"/>
+      <c r="H102" s="4"/>
       <c r="I102" s="1"/>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>7</v>
       </c>
-      <c r="B103" s="3"/>
-      <c r="C103" s="2"/>
-      <c r="D103" s="3"/>
-      <c r="E103" s="3"/>
-      <c r="F103" s="1"/>
-      <c r="G103" s="4"/>
-      <c r="H103" s="1"/>
+      <c r="B103" s="3">
+        <v>878</v>
+      </c>
+      <c r="C103" s="2">
+        <v>53</v>
+      </c>
+      <c r="D103" s="3">
+        <v>901.2</v>
+      </c>
+      <c r="E103" s="3">
+        <v>-0.84</v>
+      </c>
+      <c r="F103" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G103" s="15">
+        <v>45318</v>
+      </c>
+      <c r="H103" s="4">
+        <v>7601</v>
+      </c>
       <c r="I103" s="1"/>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>8</v>
       </c>
-      <c r="B104" s="3"/>
-      <c r="C104" s="2"/>
-      <c r="D104" s="3"/>
-      <c r="E104" s="3"/>
-      <c r="F104" s="1"/>
-      <c r="G104" s="4"/>
-      <c r="H104" s="1"/>
+      <c r="B104" s="3">
+        <v>828</v>
+      </c>
+      <c r="C104" s="2">
+        <v>53</v>
+      </c>
+      <c r="D104" s="3">
+        <v>853</v>
+      </c>
+      <c r="E104" s="3">
+        <v>-0.96</v>
+      </c>
+      <c r="F104" s="5"/>
+      <c r="G104" s="15"/>
+      <c r="H104" s="4"/>
       <c r="I104" s="1"/>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>9</v>
       </c>
-      <c r="B105" s="3"/>
-      <c r="C105" s="2"/>
-      <c r="D105" s="3"/>
-      <c r="E105" s="3"/>
-      <c r="F105" s="1"/>
-      <c r="G105" s="4"/>
-      <c r="H105" s="1"/>
+      <c r="B105" s="3">
+        <v>887</v>
+      </c>
+      <c r="C105" s="2">
+        <v>53</v>
+      </c>
+      <c r="D105" s="3">
+        <v>900</v>
+      </c>
+      <c r="E105" s="3">
+        <v>-11.04</v>
+      </c>
+      <c r="F105" s="5"/>
+      <c r="G105" s="15"/>
+      <c r="H105" s="4"/>
       <c r="I105" s="1"/>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>10</v>
       </c>
-      <c r="B106" s="3"/>
-      <c r="C106" s="2"/>
-      <c r="D106" s="3"/>
-      <c r="E106" s="3"/>
-      <c r="F106" s="1"/>
-      <c r="G106" s="4"/>
-      <c r="H106" s="1"/>
+      <c r="B106" s="3">
+        <v>865</v>
+      </c>
+      <c r="C106" s="2">
+        <v>53</v>
+      </c>
+      <c r="D106" s="3">
+        <v>861</v>
+      </c>
+      <c r="E106" s="3">
+        <v>-28.04</v>
+      </c>
+      <c r="F106" s="5"/>
+      <c r="G106" s="15"/>
+      <c r="H106" s="4"/>
       <c r="I106" s="1"/>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>11</v>
       </c>
-      <c r="B107" s="3"/>
-      <c r="C107" s="2"/>
-      <c r="D107" s="3"/>
-      <c r="E107" s="3"/>
-      <c r="F107" s="1"/>
-      <c r="G107" s="4"/>
-      <c r="H107" s="1"/>
+      <c r="B107" s="3">
+        <v>862</v>
+      </c>
+      <c r="C107" s="2">
+        <v>53</v>
+      </c>
+      <c r="D107" s="3">
+        <v>885.8</v>
+      </c>
+      <c r="E107" s="3">
+        <v>-0.24</v>
+      </c>
+      <c r="F107" s="5"/>
+      <c r="G107" s="15"/>
+      <c r="H107" s="4"/>
       <c r="I107" s="1"/>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>12</v>
       </c>
-      <c r="B108" s="3"/>
-      <c r="C108" s="2"/>
-      <c r="D108" s="3"/>
-      <c r="E108" s="3"/>
-      <c r="F108" s="1"/>
-      <c r="G108" s="4"/>
-      <c r="H108" s="1"/>
+      <c r="B108" s="3">
+        <v>797</v>
+      </c>
+      <c r="C108" s="2">
+        <v>53</v>
+      </c>
+      <c r="D108" s="3">
+        <v>823.2</v>
+      </c>
+      <c r="E108" s="3">
+        <v>2.16</v>
+      </c>
+      <c r="F108" s="5"/>
+      <c r="G108" s="15"/>
+      <c r="H108" s="4"/>
       <c r="I108" s="1"/>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>13</v>
       </c>
-      <c r="B109" s="3"/>
-      <c r="C109" s="2"/>
-      <c r="D109" s="3"/>
-      <c r="E109" s="3"/>
-      <c r="F109" s="1"/>
-      <c r="G109" s="4"/>
-      <c r="H109" s="1"/>
+      <c r="B109" s="3">
+        <v>892</v>
+      </c>
+      <c r="C109" s="2">
+        <v>53</v>
+      </c>
+      <c r="D109" s="3">
+        <v>916.6</v>
+      </c>
+      <c r="E109" s="3">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="F109" s="5"/>
+      <c r="G109" s="15"/>
+      <c r="H109" s="4"/>
       <c r="I109" s="1"/>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>14</v>
       </c>
-      <c r="B110" s="3"/>
-      <c r="C110" s="2"/>
-      <c r="D110" s="3"/>
-      <c r="E110" s="3"/>
-      <c r="F110" s="1"/>
-      <c r="G110" s="4"/>
-      <c r="H110" s="1"/>
+      <c r="B110" s="3">
+        <v>901</v>
+      </c>
+      <c r="C110" s="2">
+        <v>53</v>
+      </c>
+      <c r="D110" s="3">
+        <v>924.4</v>
+      </c>
+      <c r="E110" s="3">
+        <v>0.64</v>
+      </c>
+      <c r="F110" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G110" s="15">
+        <v>45316</v>
+      </c>
+      <c r="H110" s="4">
+        <v>7598</v>
+      </c>
       <c r="I110" s="1"/>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>15</v>
       </c>
-      <c r="B111" s="3"/>
-      <c r="C111" s="2"/>
-      <c r="D111" s="3"/>
-      <c r="E111" s="3"/>
-      <c r="F111" s="1"/>
-      <c r="G111" s="4"/>
-      <c r="H111" s="1"/>
+      <c r="B111" s="3">
+        <v>892</v>
+      </c>
+      <c r="C111" s="2">
+        <v>53</v>
+      </c>
+      <c r="D111" s="3">
+        <v>916.4</v>
+      </c>
+      <c r="E111" s="3">
+        <v>0.36</v>
+      </c>
+      <c r="F111" s="5"/>
+      <c r="G111" s="15"/>
+      <c r="H111" s="4"/>
       <c r="I111" s="1"/>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>16</v>
       </c>
-      <c r="B112" s="3"/>
-      <c r="C112" s="2"/>
-      <c r="D112" s="3"/>
-      <c r="E112" s="3"/>
-      <c r="F112" s="1"/>
-      <c r="G112" s="4"/>
-      <c r="H112" s="1"/>
+      <c r="B112" s="3">
+        <v>943</v>
+      </c>
+      <c r="C112" s="2">
+        <v>53</v>
+      </c>
+      <c r="D112" s="3">
+        <v>968.6</v>
+      </c>
+      <c r="E112" s="3">
+        <v>1.56</v>
+      </c>
+      <c r="F112" s="5"/>
+      <c r="G112" s="15"/>
+      <c r="H112" s="4"/>
       <c r="I112" s="1"/>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>17</v>
       </c>
-      <c r="B113" s="3"/>
-      <c r="C113" s="2"/>
-      <c r="D113" s="3"/>
-      <c r="E113" s="3"/>
-      <c r="F113" s="1"/>
-      <c r="G113" s="4"/>
-      <c r="H113" s="1"/>
+      <c r="B113" s="3">
+        <v>885</v>
+      </c>
+      <c r="C113" s="2">
+        <v>53</v>
+      </c>
+      <c r="D113" s="3">
+        <v>911.6</v>
+      </c>
+      <c r="E113" s="3">
+        <v>2.56</v>
+      </c>
+      <c r="F113" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G113" s="15">
+        <v>45316</v>
+      </c>
+      <c r="H113" s="4">
+        <v>7598</v>
+      </c>
       <c r="I113" s="1"/>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>18</v>
       </c>
-      <c r="B114" s="3"/>
-      <c r="C114" s="2"/>
-      <c r="D114" s="3"/>
-      <c r="E114" s="3"/>
-      <c r="F114" s="1"/>
-      <c r="G114" s="4"/>
-      <c r="H114" s="1"/>
+      <c r="B114" s="3">
+        <v>923</v>
+      </c>
+      <c r="C114" s="2">
+        <v>53</v>
+      </c>
+      <c r="D114" s="3">
+        <v>946</v>
+      </c>
+      <c r="E114" s="3">
+        <v>-1.04</v>
+      </c>
+      <c r="F114" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G114" s="15">
+        <v>45316</v>
+      </c>
+      <c r="H114" s="4">
+        <v>7598</v>
+      </c>
       <c r="I114" s="1"/>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>19</v>
       </c>
-      <c r="B115" s="3"/>
-      <c r="C115" s="2"/>
-      <c r="D115" s="3"/>
-      <c r="E115" s="3"/>
-      <c r="F115" s="1"/>
-      <c r="G115" s="4"/>
-      <c r="H115" s="1"/>
+      <c r="B115" s="3">
+        <v>869</v>
+      </c>
+      <c r="C115" s="2">
+        <v>53</v>
+      </c>
+      <c r="D115" s="3">
+        <v>892.6</v>
+      </c>
+      <c r="E115" s="3">
+        <v>-0.44</v>
+      </c>
+      <c r="F115" s="5"/>
+      <c r="G115" s="15"/>
+      <c r="H115" s="4"/>
       <c r="I115" s="1"/>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>20</v>
       </c>
-      <c r="B116" s="3"/>
-      <c r="C116" s="2"/>
-      <c r="D116" s="3"/>
-      <c r="E116" s="3"/>
-      <c r="F116" s="1"/>
-      <c r="G116" s="4"/>
-      <c r="H116" s="1"/>
+      <c r="B116" s="3">
+        <v>901</v>
+      </c>
+      <c r="C116" s="2">
+        <v>53</v>
+      </c>
+      <c r="D116" s="3">
+        <v>926</v>
+      </c>
+      <c r="E116" s="3">
+        <v>-0.96</v>
+      </c>
+      <c r="F116" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G116" s="15">
+        <v>45318</v>
+      </c>
+      <c r="H116" s="4">
+        <v>7601</v>
+      </c>
       <c r="I116" s="1"/>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>21</v>
       </c>
-      <c r="B117" s="3"/>
-      <c r="C117" s="2"/>
-      <c r="D117" s="3"/>
-      <c r="E117" s="3"/>
-      <c r="F117" s="1"/>
-      <c r="G117" s="4"/>
-      <c r="H117" s="1"/>
+      <c r="B117" s="3">
+        <v>906</v>
+      </c>
+      <c r="C117" s="2">
+        <v>53</v>
+      </c>
+      <c r="D117" s="3">
+        <v>928</v>
+      </c>
+      <c r="E117" s="3">
+        <v>-1.64</v>
+      </c>
+      <c r="F117" s="5"/>
+      <c r="G117" s="15"/>
+      <c r="H117" s="4"/>
       <c r="I117" s="1"/>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.25">
@@ -2410,10 +2816,9 @@
       </c>
       <c r="B118" s="3"/>
       <c r="C118" s="2"/>
-      <c r="D118" s="3"/>
       <c r="E118" s="1"/>
-      <c r="F118" s="1"/>
-      <c r="G118" s="1"/>
+      <c r="F118" s="5"/>
+      <c r="G118" s="15"/>
       <c r="H118" s="1"/>
       <c r="I118" s="1"/>
     </row>
@@ -2425,8 +2830,8 @@
       <c r="C119" s="2"/>
       <c r="D119" s="3"/>
       <c r="E119" s="1"/>
-      <c r="F119" s="1"/>
-      <c r="G119" s="1"/>
+      <c r="F119" s="5"/>
+      <c r="G119" s="15"/>
       <c r="H119" s="1"/>
       <c r="I119" s="1"/>
     </row>
@@ -2438,8 +2843,8 @@
       <c r="C120" s="2"/>
       <c r="D120" s="3"/>
       <c r="E120" s="1"/>
-      <c r="F120" s="1"/>
-      <c r="G120" s="1"/>
+      <c r="F120" s="5"/>
+      <c r="G120" s="15"/>
       <c r="H120" s="1"/>
       <c r="I120" s="1"/>
     </row>
@@ -2449,18 +2854,20 @@
       </c>
       <c r="B121" s="3">
         <f>SUM(B97:B120)</f>
-        <v>0</v>
+        <v>18385</v>
       </c>
       <c r="C121" s="1">
         <f>SUM(C97:C120)</f>
-        <v>0</v>
+        <v>1113</v>
       </c>
       <c r="D121" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E121" s="3"/>
-      <c r="F121" s="1"/>
-      <c r="G121" s="1"/>
+      <c r="E121" s="3">
+        <v>-68.06</v>
+      </c>
+      <c r="F121" s="5"/>
+      <c r="G121" s="15"/>
       <c r="H121" s="1"/>
       <c r="I121" s="1"/>
     </row>
@@ -2472,8 +2879,8 @@
         <v>27</v>
       </c>
       <c r="E122" s="1"/>
-      <c r="F122" s="1"/>
-      <c r="G122" s="1"/>
+      <c r="F122" s="5"/>
+      <c r="G122" s="15"/>
       <c r="H122" s="1"/>
       <c r="I122" s="1"/>
     </row>
@@ -2486,9 +2893,12 @@
       <c r="D124" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E124" s="1"/>
-      <c r="F124" s="1"/>
-      <c r="G124" s="1"/>
+      <c r="E124" s="10">
+        <v>18821.8</v>
+      </c>
+      <c r="F124" s="5"/>
+      <c r="G124" s="15"/>
+      <c r="H124" s="1"/>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A125" s="1"/>
@@ -2499,9 +2909,12 @@
       <c r="D125" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E125" s="1"/>
-      <c r="F125" s="1"/>
-      <c r="G125" s="1"/>
+      <c r="E125" s="3">
+        <v>504.86</v>
+      </c>
+      <c r="F125" s="5"/>
+      <c r="G125" s="15"/>
+      <c r="H125" s="1"/>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A126" s="1"/>
@@ -2509,8 +2922,9 @@
       <c r="C126" s="1"/>
       <c r="D126" s="1"/>
       <c r="E126" s="1"/>
-      <c r="F126" s="1"/>
-      <c r="G126" s="1"/>
+      <c r="F126" s="5"/>
+      <c r="G126" s="15"/>
+      <c r="H126" s="1"/>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A127" s="1"/>
@@ -2520,30 +2934,35 @@
       <c r="C127" s="1"/>
       <c r="D127" s="1"/>
       <c r="E127" s="1"/>
-      <c r="F127" s="1"/>
-      <c r="G127" s="1"/>
+      <c r="F127" s="5"/>
+      <c r="G127" s="15"/>
+      <c r="H127" s="1"/>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B128" s="1"/>
+      <c r="B128" s="11">
+        <v>18316.939999999999</v>
+      </c>
       <c r="C128" s="1"/>
       <c r="D128" s="1"/>
       <c r="E128" s="1"/>
-      <c r="F128" s="1"/>
-      <c r="G128" s="1"/>
-    </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F128" s="5"/>
+      <c r="G128" s="15"/>
+      <c r="H128" s="1"/>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129" s="1"/>
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
       <c r="D129" s="1"/>
       <c r="E129" s="1"/>
-      <c r="F129" s="1"/>
-      <c r="G129" s="1"/>
-    </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F129" s="5"/>
+      <c r="G129" s="15"/>
+      <c r="H129" s="1"/>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130" s="1"/>
       <c r="B130" s="1" t="s">
         <v>29</v>
@@ -2551,39 +2970,46 @@
       <c r="C130" s="1"/>
       <c r="D130" s="1"/>
       <c r="E130" s="1"/>
-      <c r="F130" s="1"/>
-      <c r="G130" s="1"/>
-    </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F130" s="5"/>
+      <c r="G130" s="15"/>
+      <c r="H130" s="1"/>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131" s="1"/>
       <c r="B131" s="1"/>
-      <c r="C131" s="1"/>
+      <c r="C131" s="12">
+        <v>-68.06</v>
+      </c>
       <c r="D131" s="1"/>
       <c r="E131" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F131" s="1"/>
-      <c r="G131" s="1"/>
-    </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F131" s="5"/>
+      <c r="G131" s="15"/>
+      <c r="H131" s="1"/>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132" s="1"/>
       <c r="B132" s="1"/>
-      <c r="C132" s="1"/>
+      <c r="C132" s="12">
+        <v>-68.06</v>
+      </c>
       <c r="D132" s="1"/>
       <c r="E132" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F132" s="1"/>
-      <c r="G132" s="1"/>
+      <c r="F132" s="5"/>
+      <c r="G132" s="15"/>
+      <c r="H132" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="F94:H94"/>
     <mergeCell ref="B1:E2"/>
     <mergeCell ref="B46:E47"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="F48:G48"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="F48:H48"/>
     <mergeCell ref="B92:E93"/>
-    <mergeCell ref="F94:G94"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/COMBOS DESDE EL 22 DE ENERO EN ADELANTE.xlsx
+++ b/COMBOS DESDE EL 22 DE ENERO EN ADELANTE.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="50">
   <si>
     <t>COMERCIO INTERNACIONAL DE CARNES 11 SUR</t>
   </si>
@@ -145,14 +145,43 @@
   <si>
     <t>EDGAR</t>
   </si>
+  <si>
+    <t>MAQUILA PRODUCCION</t>
+  </si>
+  <si>
+    <t>YOLANDA NEALTICAN</t>
+  </si>
+  <si>
+    <t>EDGAR CENTRAL</t>
+  </si>
+  <si>
+    <t>ENTIQUECEDORA</t>
+  </si>
+  <si>
+    <t>ENRIQUECEDORA</t>
+  </si>
+  <si>
+    <t>MIGUEL TORRES</t>
+  </si>
+  <si>
+    <t>NEALTICAN</t>
+  </si>
+  <si>
+    <t>TAURO</t>
+  </si>
+  <si>
+    <t>BENITO ZAVALETA</t>
+  </si>
+  <si>
+    <t>11 SUR BENITO</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
-    <numFmt numFmtId="168" formatCode="dd\-mm\-yy;@"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -226,7 +255,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -236,15 +265,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -257,15 +277,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -332,7 +366,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>28576</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>28576</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="390524" cy="342899"/>
@@ -370,7 +404,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>28576</xdr:colOff>
-      <xdr:row>91</xdr:row>
+      <xdr:row>81</xdr:row>
       <xdr:rowOff>28576</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="390524" cy="342899"/>
@@ -395,6 +429,158 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="28576" y="8874402"/>
+          <a:ext cx="390524" cy="342899"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>28576</xdr:colOff>
+      <xdr:row>122</xdr:row>
+      <xdr:rowOff>28576</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="390524" cy="342899"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Imagen 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="10591" t="9091" r="12783" b="9091"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="28576" y="20471197"/>
+          <a:ext cx="390524" cy="342899"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>28576</xdr:colOff>
+      <xdr:row>163</xdr:row>
+      <xdr:rowOff>28576</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="390524" cy="342899"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Imagen 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="10591" t="9091" r="12783" b="9091"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="28576" y="29615197"/>
+          <a:ext cx="390524" cy="342899"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>28576</xdr:colOff>
+      <xdr:row>204</xdr:row>
+      <xdr:rowOff>28576</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="390524" cy="342899"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Imagen 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="10591" t="9091" r="12783" b="9091"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="28576" y="37616197"/>
+          <a:ext cx="390524" cy="342899"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>28576</xdr:colOff>
+      <xdr:row>245</xdr:row>
+      <xdr:rowOff>28576</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="390524" cy="342899"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Imagen 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="10591" t="9091" r="12783" b="9091"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="28576" y="50570197"/>
           <a:ext cx="390524" cy="342899"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -670,10 +856,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I132"/>
+  <dimension ref="A1:I286"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A90" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H117" sqref="H117"/>
+    <sheetView tabSelected="1" topLeftCell="A232" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="F249" sqref="F249"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -682,23 +868,23 @@
     <col min="2" max="2" width="9.5703125" customWidth="1"/>
     <col min="4" max="4" width="9.42578125" customWidth="1"/>
     <col min="5" max="5" width="9.7109375" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" style="13" customWidth="1"/>
-    <col min="7" max="7" width="16.5703125" style="14" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" style="10" customWidth="1"/>
+    <col min="7" max="7" width="28.7109375" style="16" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
     </row>
     <row r="3" spans="1:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
@@ -712,11 +898,11 @@
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
-      <c r="F3" s="8">
+      <c r="F3" s="15">
         <v>45313</v>
       </c>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
       <c r="I3" s="1"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -728,7 +914,7 @@
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="5"/>
-      <c r="G4" s="15"/>
+      <c r="G4" s="6"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
@@ -745,7 +931,7 @@
       <c r="F5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="15" t="s">
+      <c r="G5" s="6" t="s">
         <v>32</v>
       </c>
       <c r="H5" s="1" t="s">
@@ -774,7 +960,7 @@
       <c r="F6" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="G6" s="15">
+      <c r="G6" s="6">
         <v>45315</v>
       </c>
       <c r="H6" s="4">
@@ -801,7 +987,7 @@
       <c r="F7" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="G7" s="15">
+      <c r="G7" s="6">
         <v>45315</v>
       </c>
       <c r="H7" s="4">
@@ -828,7 +1014,7 @@
       <c r="F8" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="G8" s="15">
+      <c r="G8" s="6">
         <v>45315</v>
       </c>
       <c r="H8" s="4">
@@ -855,7 +1041,7 @@
       <c r="F9" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="G9" s="15">
+      <c r="G9" s="6">
         <v>45316</v>
       </c>
       <c r="H9" s="4">
@@ -882,7 +1068,7 @@
       <c r="F10" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="G10" s="15">
+      <c r="G10" s="6">
         <v>45314</v>
       </c>
       <c r="H10" s="4">
@@ -909,7 +1095,7 @@
       <c r="F11" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="G11" s="15">
+      <c r="G11" s="6">
         <v>45314</v>
       </c>
       <c r="H11" s="4">
@@ -933,10 +1119,10 @@
       <c r="E12" s="3">
         <v>0.71</v>
       </c>
-      <c r="F12" s="16" t="s">
+      <c r="F12" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="G12" s="15">
+      <c r="G12" s="6">
         <v>45315</v>
       </c>
       <c r="H12" s="4">
@@ -963,7 +1149,7 @@
       <c r="F13" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="G13" s="15">
+      <c r="G13" s="6">
         <v>45315</v>
       </c>
       <c r="H13" s="4">
@@ -990,7 +1176,7 @@
       <c r="F14" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="G14" s="15">
+      <c r="G14" s="6">
         <v>45316</v>
       </c>
       <c r="H14" s="4">
@@ -1017,7 +1203,7 @@
       <c r="F15" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="G15" s="15">
+      <c r="G15" s="6">
         <v>45316</v>
       </c>
       <c r="H15" s="4">
@@ -1044,7 +1230,7 @@
       <c r="F16" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="G16" s="15">
+      <c r="G16" s="6">
         <v>45316</v>
       </c>
       <c r="H16" s="4">
@@ -1071,7 +1257,7 @@
       <c r="F17" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="G17" s="15">
+      <c r="G17" s="6">
         <v>45316</v>
       </c>
       <c r="H17" s="4">
@@ -1098,7 +1284,7 @@
       <c r="F18" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="G18" s="15">
+      <c r="G18" s="6">
         <v>45314</v>
       </c>
       <c r="H18" s="4">
@@ -1125,7 +1311,7 @@
       <c r="F19" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="G19" s="15">
+      <c r="G19" s="6">
         <v>45314</v>
       </c>
       <c r="H19" s="4">
@@ -1152,7 +1338,7 @@
       <c r="F20" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="G20" s="15">
+      <c r="G20" s="6">
         <v>45314</v>
       </c>
       <c r="H20" s="4">
@@ -1179,7 +1365,7 @@
       <c r="F21" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="G21" s="15">
+      <c r="G21" s="6">
         <v>45314</v>
       </c>
       <c r="H21" s="4">
@@ -1206,7 +1392,7 @@
       <c r="F22" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="G22" s="15">
+      <c r="G22" s="6">
         <v>45314</v>
       </c>
       <c r="H22" s="4">
@@ -1233,7 +1419,7 @@
       <c r="F23" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="G23" s="15">
+      <c r="G23" s="6">
         <v>45314</v>
       </c>
       <c r="H23" s="4">
@@ -1260,7 +1446,7 @@
       <c r="F24" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="G24" s="15">
+      <c r="G24" s="6">
         <v>45314</v>
       </c>
       <c r="H24" s="4">
@@ -1287,7 +1473,7 @@
       <c r="F25" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="G25" s="15">
+      <c r="G25" s="6">
         <v>45314</v>
       </c>
       <c r="H25" s="4">
@@ -1306,7 +1492,7 @@
         <v>0</v>
       </c>
       <c r="F26" s="5"/>
-      <c r="G26" s="15"/>
+      <c r="G26" s="6"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
     </row>
@@ -1319,7 +1505,7 @@
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
       <c r="F27" s="5"/>
-      <c r="G27" s="15"/>
+      <c r="G27" s="6"/>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
     </row>
@@ -1332,7 +1518,7 @@
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
       <c r="F28" s="5"/>
-      <c r="G28" s="15"/>
+      <c r="G28" s="6"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
     </row>
@@ -1345,7 +1531,7 @@
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
       <c r="F29" s="5"/>
-      <c r="G29" s="15"/>
+      <c r="G29" s="6"/>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
     </row>
@@ -1367,7 +1553,7 @@
         <v>5.8000000000000007</v>
       </c>
       <c r="F30" s="5"/>
-      <c r="G30" s="15"/>
+      <c r="G30" s="6"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
     </row>
@@ -1382,7 +1568,7 @@
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
       <c r="F31" s="5"/>
-      <c r="G31" s="15"/>
+      <c r="G31" s="6"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
     </row>
@@ -1397,7 +1583,7 @@
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
       <c r="F33" s="5"/>
-      <c r="G33" s="15"/>
+      <c r="G33" s="6"/>
       <c r="H33" s="1"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
@@ -1409,7 +1595,7 @@
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
       <c r="F34" s="5"/>
-      <c r="G34" s="15"/>
+      <c r="G34" s="6"/>
       <c r="H34" s="1"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
@@ -1421,7 +1607,7 @@
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
       <c r="F35" s="5"/>
-      <c r="G35" s="15"/>
+      <c r="G35" s="6"/>
       <c r="H35" s="1"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
@@ -1433,7 +1619,7 @@
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
       <c r="F36" s="5"/>
-      <c r="G36" s="15"/>
+      <c r="G36" s="6"/>
       <c r="H36" s="1"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
@@ -1445,7 +1631,7 @@
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
       <c r="F37" s="5"/>
-      <c r="G37" s="15"/>
+      <c r="G37" s="6"/>
       <c r="H37" s="1"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
@@ -1459,7 +1645,7 @@
         <v>11</v>
       </c>
       <c r="F38" s="5"/>
-      <c r="G38" s="15"/>
+      <c r="G38" s="6"/>
       <c r="H38" s="1"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
@@ -1473,7 +1659,7 @@
         <v>12</v>
       </c>
       <c r="F39" s="5"/>
-      <c r="G39" s="15"/>
+      <c r="G39" s="6"/>
       <c r="H39" s="1"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
@@ -1483,1533 +1669,4738 @@
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
       <c r="F40" s="5"/>
-      <c r="G40" s="15"/>
+      <c r="G40" s="6"/>
       <c r="H40" s="1"/>
     </row>
-    <row r="45" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B46" s="6" t="s">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B41" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C46" s="6"/>
-      <c r="D46" s="6"/>
-      <c r="E46" s="6"/>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B47" s="7"/>
-      <c r="C47" s="7"/>
-      <c r="D47" s="7"/>
-      <c r="E47" s="7"/>
+      <c r="C41" s="13"/>
+      <c r="D41" s="13"/>
+      <c r="E41" s="13"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B42" s="14"/>
+      <c r="C42" s="14"/>
+      <c r="D42" s="14"/>
+      <c r="E42" s="14"/>
+    </row>
+    <row r="43" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>20</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="12">
+        <v>45314</v>
+      </c>
+      <c r="G43" s="12"/>
+      <c r="H43" s="12"/>
+      <c r="I43" s="1"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" s="1"/>
+      <c r="B44" s="1"/>
+      <c r="C44" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G44" s="6"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="1"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" s="1"/>
+      <c r="B45" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G45" s="6"/>
+      <c r="H45" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I45" s="1"/>
+    </row>
+    <row r="46" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>1</v>
+      </c>
+      <c r="B46" s="3">
+        <v>930</v>
+      </c>
+      <c r="C46" s="2">
+        <v>62</v>
+      </c>
+      <c r="D46" s="3">
+        <v>958</v>
+      </c>
+      <c r="E46" s="3">
+        <v>-0.12</v>
+      </c>
+      <c r="F46" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G46" s="6">
+        <v>45317</v>
+      </c>
+      <c r="H46" s="4">
+        <v>7606</v>
+      </c>
+      <c r="I46" s="1"/>
+    </row>
+    <row r="47" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>2</v>
+      </c>
+      <c r="B47" s="3">
+        <v>895.5</v>
+      </c>
+      <c r="C47" s="2">
+        <v>62</v>
+      </c>
+      <c r="D47" s="3">
+        <v>919.6</v>
+      </c>
+      <c r="E47" s="3">
+        <v>-4.0199999999999996</v>
+      </c>
+      <c r="F47" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G47" s="6">
+        <v>45317</v>
+      </c>
+      <c r="H47" s="4">
+        <v>7603</v>
+      </c>
+      <c r="I47" s="1"/>
     </row>
     <row r="48" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
-        <v>20</v>
-      </c>
-      <c r="B48" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D48" s="1"/>
-      <c r="E48" s="1"/>
-      <c r="F48" s="9">
-        <v>45314</v>
-      </c>
-      <c r="G48" s="9"/>
-      <c r="H48" s="9"/>
+        <v>3</v>
+      </c>
+      <c r="B48" s="3">
+        <v>889.5</v>
+      </c>
+      <c r="C48" s="2">
+        <v>62</v>
+      </c>
+      <c r="D48" s="3">
+        <v>917.2</v>
+      </c>
+      <c r="E48" s="3">
+        <v>-0.42</v>
+      </c>
+      <c r="F48" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G48" s="6">
+        <v>45317</v>
+      </c>
+      <c r="H48" s="4">
+        <v>7605</v>
+      </c>
       <c r="I48" s="1"/>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A49" s="1"/>
-      <c r="B49" s="1"/>
-      <c r="C49" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D49" s="1"/>
-      <c r="E49" s="1"/>
+    <row r="49" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
+        <v>4</v>
+      </c>
+      <c r="B49" s="3">
+        <v>886.5</v>
+      </c>
+      <c r="C49" s="2">
+        <v>62</v>
+      </c>
+      <c r="D49" s="3">
+        <v>913.4</v>
+      </c>
+      <c r="E49" s="3">
+        <v>-1.22</v>
+      </c>
       <c r="F49" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="G49" s="15"/>
-      <c r="H49" s="1"/>
+        <v>41</v>
+      </c>
+      <c r="G49" s="6">
+        <v>45317</v>
+      </c>
+      <c r="H49" s="4">
+        <v>7605</v>
+      </c>
       <c r="I49" s="1"/>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A50" s="1"/>
-      <c r="B50" s="2" t="s">
+    <row r="50" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
         <v>5</v>
       </c>
-      <c r="C50" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D50" s="1"/>
-      <c r="E50" s="1"/>
+      <c r="B50" s="3">
+        <v>906.5</v>
+      </c>
+      <c r="C50" s="2">
+        <v>62</v>
+      </c>
+      <c r="D50" s="3">
+        <v>929</v>
+      </c>
+      <c r="E50" s="3">
+        <v>-5.62</v>
+      </c>
       <c r="F50" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G50" s="15"/>
-      <c r="H50" s="1" t="s">
-        <v>13</v>
+        <v>41</v>
+      </c>
+      <c r="G50" s="6">
+        <v>45317</v>
+      </c>
+      <c r="H50" s="4">
+        <v>7605</v>
       </c>
       <c r="I50" s="1"/>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B51" s="3">
-        <v>930</v>
+        <v>875</v>
       </c>
       <c r="C51" s="2">
         <v>62</v>
       </c>
       <c r="D51" s="3">
-        <v>958</v>
+        <v>899.4</v>
       </c>
       <c r="E51" s="3">
-        <v>-0.12</v>
-      </c>
-      <c r="F51" s="5"/>
-      <c r="G51" s="15"/>
+        <v>-3.72</v>
+      </c>
+      <c r="F51" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G51" s="6">
+        <v>45317</v>
+      </c>
       <c r="H51" s="4"/>
       <c r="I51" s="1"/>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B52" s="3">
-        <v>895.5</v>
+        <v>904</v>
       </c>
       <c r="C52" s="2">
         <v>62</v>
       </c>
       <c r="D52" s="3">
-        <v>919.6</v>
+        <v>931.2</v>
       </c>
       <c r="E52" s="3">
-        <v>-4.0199999999999996</v>
-      </c>
-      <c r="F52" s="5"/>
-      <c r="G52" s="15"/>
-      <c r="H52" s="4"/>
+        <v>-0.92</v>
+      </c>
+      <c r="F52" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G52" s="6">
+        <v>45317</v>
+      </c>
+      <c r="H52" s="4">
+        <v>7608</v>
+      </c>
       <c r="I52" s="1"/>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B53" s="3">
-        <v>889.5</v>
+        <v>871.5</v>
       </c>
       <c r="C53" s="2">
         <v>62</v>
       </c>
       <c r="D53" s="3">
-        <v>917.2</v>
+        <v>896.6</v>
       </c>
       <c r="E53" s="3">
-        <v>-0.42</v>
-      </c>
-      <c r="F53" s="5"/>
-      <c r="G53" s="15"/>
-      <c r="H53" s="4"/>
+        <v>-3.02</v>
+      </c>
+      <c r="F53" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G53" s="6">
+        <v>45316</v>
+      </c>
+      <c r="H53" s="4">
+        <v>7596</v>
+      </c>
       <c r="I53" s="1"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B54" s="3">
-        <v>886.5</v>
+        <v>896.5</v>
       </c>
       <c r="C54" s="2">
         <v>62</v>
       </c>
       <c r="D54" s="3">
-        <v>913.4</v>
+        <v>919.4</v>
       </c>
       <c r="E54" s="3">
-        <v>-1.22</v>
-      </c>
-      <c r="F54" s="5"/>
-      <c r="G54" s="15"/>
-      <c r="H54" s="4"/>
+        <v>-5.22</v>
+      </c>
+      <c r="F54" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G54" s="6">
+        <v>45316</v>
+      </c>
+      <c r="H54" s="4">
+        <v>7597</v>
+      </c>
       <c r="I54" s="1"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B55" s="3">
-        <v>906.5</v>
+        <v>888</v>
       </c>
       <c r="C55" s="2">
         <v>62</v>
       </c>
       <c r="D55" s="3">
-        <v>929</v>
+        <v>912.4</v>
       </c>
       <c r="E55" s="3">
-        <v>-5.62</v>
-      </c>
-      <c r="F55" s="5"/>
-      <c r="G55" s="15"/>
-      <c r="H55" s="4"/>
+        <v>-3.72</v>
+      </c>
+      <c r="F55" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G55" s="6">
+        <v>45314</v>
+      </c>
+      <c r="H55" s="4">
+        <v>7586</v>
+      </c>
       <c r="I55" s="1"/>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B56" s="3">
-        <v>875</v>
+        <v>860</v>
       </c>
       <c r="C56" s="2">
         <v>62</v>
       </c>
       <c r="D56" s="3">
-        <v>899.4</v>
+        <v>888</v>
       </c>
       <c r="E56" s="3">
-        <v>-3.72</v>
-      </c>
-      <c r="F56" s="5"/>
-      <c r="G56" s="15"/>
-      <c r="H56" s="4"/>
+        <v>-0.12</v>
+      </c>
+      <c r="F56" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="G56" s="6">
+        <v>45316</v>
+      </c>
+      <c r="H56" s="4">
+        <v>7596</v>
+      </c>
       <c r="I56" s="1"/>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B57" s="3">
-        <v>904</v>
+        <v>935.5</v>
       </c>
       <c r="C57" s="2">
         <v>62</v>
       </c>
       <c r="D57" s="3">
-        <v>931.2</v>
+        <v>959.8</v>
       </c>
       <c r="E57" s="3">
-        <v>-0.92</v>
-      </c>
-      <c r="F57" s="5"/>
-      <c r="G57" s="15"/>
-      <c r="H57" s="4"/>
+        <v>-3.82</v>
+      </c>
+      <c r="F57" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G57" s="6">
+        <v>45314</v>
+      </c>
+      <c r="H57" s="4">
+        <v>7589</v>
+      </c>
       <c r="I57" s="1"/>
     </row>
     <row r="58" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B58" s="3">
-        <v>871.5</v>
+        <v>897</v>
       </c>
       <c r="C58" s="2">
         <v>62</v>
       </c>
       <c r="D58" s="3">
-        <v>896.6</v>
+        <v>922.6</v>
       </c>
       <c r="E58" s="3">
-        <v>-3.02</v>
+        <v>-2.52</v>
       </c>
       <c r="F58" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="G58" s="15">
+        <v>23</v>
+      </c>
+      <c r="G58" s="6">
+        <v>45314</v>
+      </c>
+      <c r="H58" s="4">
+        <v>7589</v>
+      </c>
+      <c r="I58" s="1"/>
+    </row>
+    <row r="59" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A59" s="1">
+        <v>14</v>
+      </c>
+      <c r="B59" s="3">
+        <v>894.5</v>
+      </c>
+      <c r="C59" s="2">
+        <v>62</v>
+      </c>
+      <c r="D59" s="3">
+        <v>923.4</v>
+      </c>
+      <c r="E59" s="3">
+        <v>0.78</v>
+      </c>
+      <c r="F59" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G59" s="6">
         <v>45316</v>
       </c>
-      <c r="H58" s="4">
+      <c r="H59" s="4">
         <v>7596</v>
       </c>
-      <c r="I58" s="1"/>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A59" s="1">
-        <v>9</v>
-      </c>
-      <c r="B59" s="3">
-        <v>896.5</v>
-      </c>
-      <c r="C59" s="2">
-        <v>62</v>
-      </c>
-      <c r="D59" s="3">
-        <v>919.4</v>
-      </c>
-      <c r="E59" s="3">
-        <v>-5.22</v>
-      </c>
-      <c r="F59" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="G59" s="15">
-        <v>45316</v>
-      </c>
-      <c r="H59" s="4">
-        <v>7597</v>
-      </c>
       <c r="I59" s="1"/>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B60" s="3">
-        <v>888</v>
+        <v>859</v>
       </c>
       <c r="C60" s="2">
         <v>62</v>
       </c>
       <c r="D60" s="3">
-        <v>912.4</v>
+        <v>882.6</v>
       </c>
       <c r="E60" s="3">
-        <v>-3.72</v>
+        <v>-4.5199999999999996</v>
       </c>
       <c r="F60" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G60" s="15">
+        <v>23</v>
+      </c>
+      <c r="G60" s="6">
         <v>45314</v>
       </c>
       <c r="H60" s="4">
-        <v>7586</v>
+        <v>7589</v>
       </c>
       <c r="I60" s="1"/>
     </row>
     <row r="61" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B61" s="3">
-        <v>860</v>
+        <v>890.5</v>
       </c>
       <c r="C61" s="2">
         <v>62</v>
       </c>
       <c r="D61" s="3">
+        <v>914</v>
+      </c>
+      <c r="E61" s="3">
+        <v>-4.62</v>
+      </c>
+      <c r="F61" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G61" s="6">
+        <v>45314</v>
+      </c>
+      <c r="H61" s="4">
+        <v>7587</v>
+      </c>
+      <c r="I61" s="1"/>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A62" s="1">
+        <v>17</v>
+      </c>
+      <c r="B62" s="3">
+        <v>861</v>
+      </c>
+      <c r="C62" s="2">
+        <v>62</v>
+      </c>
+      <c r="D62" s="3">
         <v>888</v>
       </c>
-      <c r="E61" s="3">
-        <v>-0.12</v>
-      </c>
-      <c r="F61" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="G61" s="15">
+      <c r="E62" s="3">
+        <v>-1.1200000000000001</v>
+      </c>
+      <c r="F62" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G62" s="6">
         <v>45316</v>
       </c>
-      <c r="H61" s="4">
-        <v>7596</v>
-      </c>
-      <c r="I61" s="1"/>
-    </row>
-    <row r="62" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A62" s="1">
-        <v>12</v>
-      </c>
-      <c r="B62" s="3">
-        <v>935.5</v>
-      </c>
-      <c r="C62" s="2">
-        <v>62</v>
-      </c>
-      <c r="D62" s="3">
-        <v>959.8</v>
-      </c>
-      <c r="E62" s="3">
-        <v>-3.82</v>
-      </c>
-      <c r="F62" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G62" s="15">
-        <v>45314</v>
-      </c>
       <c r="H62" s="4">
-        <v>7589</v>
+        <v>7595</v>
       </c>
       <c r="I62" s="1"/>
     </row>
     <row r="63" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B63" s="3">
-        <v>897</v>
+        <v>869.5</v>
       </c>
       <c r="C63" s="2">
         <v>62</v>
       </c>
       <c r="D63" s="3">
-        <v>922.6</v>
+        <v>895.2</v>
       </c>
       <c r="E63" s="3">
-        <v>-2.52</v>
+        <v>-2.42</v>
       </c>
       <c r="F63" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G63" s="15">
+        <v>16</v>
+      </c>
+      <c r="G63" s="6">
         <v>45314</v>
       </c>
       <c r="H63" s="4">
-        <v>7589</v>
+        <v>7588</v>
       </c>
       <c r="I63" s="1"/>
     </row>
     <row r="64" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B64" s="3">
-        <v>894.5</v>
+        <v>888</v>
       </c>
       <c r="C64" s="2">
         <v>62</v>
       </c>
       <c r="D64" s="3">
-        <v>923.4</v>
+        <v>911.4</v>
       </c>
       <c r="E64" s="3">
-        <v>0.78</v>
+        <v>-4.72</v>
       </c>
       <c r="F64" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="G64" s="15">
-        <v>45316</v>
+        <v>37</v>
+      </c>
+      <c r="G64" s="6">
+        <v>45408</v>
       </c>
       <c r="H64" s="4">
-        <v>7596</v>
+        <v>7609</v>
       </c>
       <c r="I64" s="1"/>
     </row>
-    <row r="65" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B65" s="3">
-        <v>859</v>
+        <v>856.5</v>
       </c>
       <c r="C65" s="2">
         <v>62</v>
       </c>
       <c r="D65" s="3">
-        <v>882.6</v>
+        <v>881.6</v>
       </c>
       <c r="E65" s="3">
-        <v>-4.5199999999999996</v>
+        <v>-3.02</v>
       </c>
       <c r="F65" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G65" s="15">
+        <v>19</v>
+      </c>
+      <c r="G65" s="6">
         <v>45314</v>
       </c>
       <c r="H65" s="4">
-        <v>7589</v>
+        <v>7585</v>
       </c>
       <c r="I65" s="1"/>
     </row>
-    <row r="66" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B66" s="3">
-        <v>890.5</v>
+        <v>906</v>
       </c>
       <c r="C66" s="2">
         <v>62</v>
       </c>
       <c r="D66" s="3">
-        <v>914</v>
+        <v>929</v>
       </c>
       <c r="E66" s="3">
-        <v>-4.62</v>
+        <v>-5.12</v>
       </c>
       <c r="F66" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G66" s="15">
+        <v>19</v>
+      </c>
+      <c r="G66" s="6">
         <v>45314</v>
       </c>
       <c r="H66" s="4">
-        <v>7587</v>
+        <v>7585</v>
       </c>
       <c r="I66" s="1"/>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
-        <v>17</v>
-      </c>
-      <c r="B67" s="3">
-        <v>861</v>
-      </c>
-      <c r="C67" s="2">
-        <v>62</v>
-      </c>
-      <c r="D67" s="3">
-        <v>888</v>
-      </c>
-      <c r="E67" s="3">
-        <v>-1.1200000000000001</v>
-      </c>
-      <c r="F67" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="G67" s="15">
-        <v>45316</v>
-      </c>
-      <c r="H67" s="4">
-        <v>7595</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="B67" s="3"/>
+      <c r="C67" s="2"/>
+      <c r="D67" s="3"/>
+      <c r="E67" s="1"/>
+      <c r="F67" s="5"/>
+      <c r="G67" s="6"/>
+      <c r="H67" s="1"/>
       <c r="I67" s="1"/>
     </row>
-    <row r="68" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
-        <v>18</v>
-      </c>
-      <c r="B68" s="3">
-        <v>869.5</v>
-      </c>
-      <c r="C68" s="2">
-        <v>62</v>
-      </c>
-      <c r="D68" s="3">
-        <v>895.2</v>
-      </c>
-      <c r="E68" s="3">
-        <v>-2.42</v>
-      </c>
-      <c r="F68" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G68" s="15">
-        <v>45314</v>
-      </c>
-      <c r="H68" s="4">
-        <v>7588</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="B68" s="3"/>
+      <c r="C68" s="2"/>
+      <c r="D68" s="3"/>
+      <c r="E68" s="1"/>
+      <c r="F68" s="5"/>
+      <c r="G68" s="6"/>
+      <c r="H68" s="1"/>
       <c r="I68" s="1"/>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
-        <v>19</v>
-      </c>
-      <c r="B69" s="3">
-        <v>888</v>
-      </c>
-      <c r="C69" s="2">
-        <v>62</v>
-      </c>
-      <c r="D69" s="3">
-        <v>911.4</v>
-      </c>
-      <c r="E69" s="3">
-        <v>-4.72</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="B69" s="3"/>
+      <c r="C69" s="2"/>
+      <c r="D69" s="3"/>
+      <c r="E69" s="1"/>
       <c r="F69" s="5"/>
-      <c r="G69" s="15"/>
-      <c r="H69" s="4"/>
+      <c r="G69" s="6"/>
+      <c r="H69" s="1"/>
       <c r="I69" s="1"/>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A70" s="1">
-        <v>20</v>
+      <c r="A70" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="B70" s="3">
-        <v>856.5</v>
-      </c>
-      <c r="C70" s="2">
-        <v>62</v>
-      </c>
-      <c r="D70" s="3">
-        <v>881.6</v>
+        <f>SUM(B46:B69)</f>
+        <v>18660.5</v>
+      </c>
+      <c r="C70" s="1">
+        <f>SUM(C46:C69)</f>
+        <v>1302</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="E70" s="3">
-        <v>-3.02</v>
-      </c>
-      <c r="F70" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="G70" s="15">
-        <v>45314</v>
-      </c>
-      <c r="H70" s="4">
-        <v>7585</v>
-      </c>
+        <v>59.29</v>
+      </c>
+      <c r="F70" s="5"/>
+      <c r="G70" s="6"/>
+      <c r="H70" s="1"/>
       <c r="I70" s="1"/>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A71" s="1">
-        <v>21</v>
-      </c>
-      <c r="B71" s="3">
-        <v>906</v>
-      </c>
-      <c r="C71" s="2">
-        <v>62</v>
-      </c>
-      <c r="D71" s="3">
-        <v>929</v>
-      </c>
-      <c r="E71" s="3">
-        <v>-5.12</v>
-      </c>
-      <c r="F71" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="G71" s="15">
-        <v>45314</v>
-      </c>
-      <c r="H71" s="4">
-        <v>7585</v>
-      </c>
+      <c r="A71" s="1"/>
+      <c r="B71" s="1">
+        <v>18659.28</v>
+      </c>
+      <c r="C71" s="1">
+        <v>590.59</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E71" s="1"/>
+      <c r="F71" s="5"/>
+      <c r="G71" s="6"/>
+      <c r="H71" s="1"/>
       <c r="I71" s="1"/>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A72" s="1">
-        <v>22</v>
-      </c>
-      <c r="B72" s="3"/>
-      <c r="C72" s="2"/>
-      <c r="D72" s="3"/>
-      <c r="E72" s="1"/>
-      <c r="F72" s="5"/>
-      <c r="G72" s="15"/>
-      <c r="H72" s="1"/>
-      <c r="I72" s="1"/>
-    </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A73" s="1">
-        <v>23</v>
-      </c>
-      <c r="B73" s="3"/>
-      <c r="C73" s="2"/>
-      <c r="D73" s="3"/>
+      <c r="A73" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B73" s="1"/>
+      <c r="C73" s="1">
+        <v>19191.8</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>27</v>
+      </c>
       <c r="E73" s="1"/>
       <c r="F73" s="5"/>
-      <c r="G73" s="15"/>
+      <c r="G73" s="6"/>
       <c r="H73" s="1"/>
-      <c r="I73" s="1"/>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A74" s="1">
-        <v>24</v>
-      </c>
-      <c r="B74" s="3"/>
-      <c r="C74" s="2"/>
-      <c r="D74" s="3"/>
+      <c r="A74" s="1"/>
+      <c r="B74" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C74" s="1">
+        <v>590.59</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>27</v>
+      </c>
       <c r="E74" s="1"/>
       <c r="F74" s="5"/>
-      <c r="G74" s="15"/>
+      <c r="G74" s="6"/>
       <c r="H74" s="1"/>
-      <c r="I74" s="1"/>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A75" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B75" s="3">
-        <f>SUM(B51:B74)</f>
-        <v>18660.5</v>
-      </c>
-      <c r="C75" s="1">
-        <f>SUM(C51:C74)</f>
-        <v>1302</v>
-      </c>
-      <c r="D75" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E75" s="3">
-        <v>59.29</v>
-      </c>
+      <c r="A75" s="1"/>
+      <c r="B75" s="1"/>
+      <c r="C75" s="1"/>
+      <c r="D75" s="1"/>
+      <c r="E75" s="1"/>
       <c r="F75" s="5"/>
-      <c r="G75" s="15"/>
+      <c r="G75" s="6"/>
       <c r="H75" s="1"/>
-      <c r="I75" s="1"/>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" s="1"/>
-      <c r="B76" s="1">
-        <v>18659.28</v>
-      </c>
-      <c r="C76" s="1">
-        <v>590.59</v>
-      </c>
-      <c r="D76" s="1" t="s">
-        <v>27</v>
-      </c>
+      <c r="B76" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C76" s="1"/>
+      <c r="D76" s="1"/>
       <c r="E76" s="1"/>
       <c r="F76" s="5"/>
-      <c r="G76" s="15"/>
+      <c r="G76" s="6"/>
       <c r="H76" s="1"/>
-      <c r="I76" s="1"/>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A77" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B77" s="9">
+        <v>18601.21</v>
+      </c>
+      <c r="C77" s="1"/>
+      <c r="D77" s="1"/>
+      <c r="E77" s="1"/>
+      <c r="F77" s="5"/>
+      <c r="G77" s="6"/>
+      <c r="H77" s="1"/>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A78" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A78" s="1"/>
       <c r="B78" s="1"/>
-      <c r="C78" s="1">
-        <v>19191.8</v>
-      </c>
-      <c r="D78" s="1" t="s">
-        <v>27</v>
-      </c>
+      <c r="C78" s="1"/>
+      <c r="D78" s="1"/>
       <c r="E78" s="1"/>
       <c r="F78" s="5"/>
-      <c r="G78" s="15"/>
+      <c r="G78" s="6"/>
       <c r="H78" s="1"/>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" s="1"/>
       <c r="B79" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C79" s="1">
-        <v>590.59</v>
-      </c>
-      <c r="D79" s="1" t="s">
-        <v>27</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="C79" s="1"/>
+      <c r="D79" s="1"/>
       <c r="E79" s="1"/>
       <c r="F79" s="5"/>
-      <c r="G79" s="15"/>
+      <c r="G79" s="6"/>
       <c r="H79" s="1"/>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
-      <c r="C80" s="1"/>
+      <c r="C80" s="1">
+        <v>59.29</v>
+      </c>
       <c r="D80" s="1"/>
-      <c r="E80" s="1"/>
+      <c r="E80" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="F80" s="5"/>
-      <c r="G80" s="15"/>
+      <c r="G80" s="6"/>
       <c r="H80" s="1"/>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" s="1"/>
-      <c r="B81" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C81" s="1"/>
+      <c r="B81" s="1"/>
+      <c r="C81" s="1">
+        <v>59.29</v>
+      </c>
       <c r="D81" s="1"/>
-      <c r="E81" s="1"/>
+      <c r="E81" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="F81" s="5"/>
-      <c r="G81" s="15"/>
+      <c r="G81" s="6"/>
       <c r="H81" s="1"/>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A82" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B82" s="12">
-        <v>18601.21</v>
-      </c>
-      <c r="C82" s="1"/>
-      <c r="D82" s="1"/>
-      <c r="E82" s="1"/>
-      <c r="F82" s="5"/>
-      <c r="G82" s="15"/>
-      <c r="H82" s="1"/>
+      <c r="B82" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C82" s="13"/>
+      <c r="D82" s="13"/>
+      <c r="E82" s="13"/>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A83" s="1"/>
-      <c r="B83" s="1"/>
-      <c r="C83" s="1"/>
-      <c r="D83" s="1"/>
-      <c r="E83" s="1"/>
-      <c r="F83" s="5"/>
-      <c r="G83" s="15"/>
-      <c r="H83" s="1"/>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A84" s="1"/>
-      <c r="B84" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C84" s="1"/>
+      <c r="B83" s="14"/>
+      <c r="C83" s="14"/>
+      <c r="D83" s="14"/>
+      <c r="E83" s="14"/>
+    </row>
+    <row r="84" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A84" s="1">
+        <v>20</v>
+      </c>
+      <c r="B84" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C84" s="5" t="s">
+        <v>38</v>
+      </c>
       <c r="D84" s="1"/>
       <c r="E84" s="1"/>
-      <c r="F84" s="5"/>
-      <c r="G84" s="15"/>
-      <c r="H84" s="1"/>
+      <c r="F84" s="12">
+        <v>45315</v>
+      </c>
+      <c r="G84" s="12"/>
+      <c r="H84" s="12"/>
+      <c r="I84" s="1"/>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
-      <c r="C85" s="1">
-        <v>59.29</v>
+      <c r="C85" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="D85" s="1"/>
-      <c r="E85" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F85" s="5"/>
-      <c r="G85" s="15"/>
+      <c r="E85" s="1"/>
+      <c r="F85" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G85" s="6"/>
       <c r="H85" s="1"/>
+      <c r="I85" s="1"/>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" s="1"/>
-      <c r="B86" s="1"/>
-      <c r="C86" s="1">
-        <v>59.29</v>
+      <c r="B86" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>4</v>
       </c>
       <c r="D86" s="1"/>
-      <c r="E86" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F86" s="5"/>
-      <c r="G86" s="15"/>
-      <c r="H86" s="1"/>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B92" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C92" s="6"/>
-      <c r="D92" s="6"/>
-      <c r="E92" s="6"/>
+      <c r="E86" s="1"/>
+      <c r="F86" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G86" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H86" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I86" s="1"/>
+    </row>
+    <row r="87" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A87" s="1">
+        <v>1</v>
+      </c>
+      <c r="B87" s="3">
+        <v>891</v>
+      </c>
+      <c r="C87" s="2">
+        <v>53</v>
+      </c>
+      <c r="D87" s="3">
+        <v>915.2</v>
+      </c>
+      <c r="E87" s="3">
+        <v>0.16</v>
+      </c>
+      <c r="F87" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G87" s="6">
+        <v>45317</v>
+      </c>
+      <c r="H87" s="4">
+        <v>7607</v>
+      </c>
+      <c r="I87" s="1"/>
+    </row>
+    <row r="88" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A88" s="1">
+        <v>2</v>
+      </c>
+      <c r="B88" s="3">
+        <v>947</v>
+      </c>
+      <c r="C88" s="2">
+        <v>53</v>
+      </c>
+      <c r="D88" s="3">
+        <v>969.6</v>
+      </c>
+      <c r="E88" s="3">
+        <v>-1.44</v>
+      </c>
+      <c r="F88" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G88" s="6">
+        <v>45317</v>
+      </c>
+      <c r="H88" s="4">
+        <v>7606</v>
+      </c>
+      <c r="I88" s="1"/>
+    </row>
+    <row r="89" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A89" s="1">
+        <v>3</v>
+      </c>
+      <c r="B89" s="3">
+        <v>826</v>
+      </c>
+      <c r="C89" s="2">
+        <v>53</v>
+      </c>
+      <c r="D89" s="3">
+        <v>838.6</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-11.44</v>
+      </c>
+      <c r="F89" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G89" s="6">
+        <v>45317</v>
+      </c>
+      <c r="H89" s="4">
+        <v>7607</v>
+      </c>
+      <c r="I89" s="1"/>
+    </row>
+    <row r="90" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A90" s="1">
+        <v>4</v>
+      </c>
+      <c r="B90" s="3">
+        <v>838</v>
+      </c>
+      <c r="C90" s="2">
+        <v>53</v>
+      </c>
+      <c r="D90" s="3">
+        <v>850.8</v>
+      </c>
+      <c r="E90" s="3">
+        <v>-11.24</v>
+      </c>
+      <c r="F90" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G90" s="6">
+        <v>45317</v>
+      </c>
+      <c r="H90" s="4">
+        <v>7606</v>
+      </c>
+      <c r="I90" s="1"/>
+    </row>
+    <row r="91" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A91" s="1">
+        <v>5</v>
+      </c>
+      <c r="B91" s="3">
+        <v>880</v>
+      </c>
+      <c r="C91" s="2">
+        <v>53</v>
+      </c>
+      <c r="D91" s="3">
+        <v>881.8</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-22.24</v>
+      </c>
+      <c r="F91" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G91" s="6">
+        <v>45317</v>
+      </c>
+      <c r="H91" s="4">
+        <v>7607</v>
+      </c>
+      <c r="I91" s="1"/>
+    </row>
+    <row r="92" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A92" s="1">
+        <v>6</v>
+      </c>
+      <c r="B92" s="3">
+        <v>774</v>
+      </c>
+      <c r="C92" s="2">
+        <v>53</v>
+      </c>
+      <c r="D92" s="3">
+        <v>811</v>
+      </c>
+      <c r="E92" s="3">
+        <v>12.96</v>
+      </c>
+      <c r="F92" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G92" s="6">
+        <v>46048</v>
+      </c>
+      <c r="H92" s="4">
+        <v>7607</v>
+      </c>
+      <c r="I92" s="1"/>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B93" s="7"/>
-      <c r="C93" s="7"/>
-      <c r="D93" s="7"/>
-      <c r="E93" s="7"/>
-    </row>
-    <row r="94" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A93" s="1">
+        <v>7</v>
+      </c>
+      <c r="B93" s="3">
+        <v>878</v>
+      </c>
+      <c r="C93" s="2">
+        <v>53</v>
+      </c>
+      <c r="D93" s="3">
+        <v>901.2</v>
+      </c>
+      <c r="E93" s="3">
+        <v>-0.84</v>
+      </c>
+      <c r="F93" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G93" s="6">
+        <v>45318</v>
+      </c>
+      <c r="H93" s="4">
+        <v>7601</v>
+      </c>
+      <c r="I93" s="1"/>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
-        <v>20</v>
-      </c>
-      <c r="B94" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C94" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="D94" s="1"/>
-      <c r="E94" s="1"/>
-      <c r="F94" s="9">
-        <v>45315</v>
-      </c>
-      <c r="G94" s="9"/>
-      <c r="H94" s="9"/>
+        <v>8</v>
+      </c>
+      <c r="B94" s="3">
+        <v>828</v>
+      </c>
+      <c r="C94" s="2">
+        <v>53</v>
+      </c>
+      <c r="D94" s="3">
+        <v>853</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-0.96</v>
+      </c>
+      <c r="F94" s="5"/>
+      <c r="G94" s="6"/>
+      <c r="H94" s="4"/>
       <c r="I94" s="1"/>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A95" s="1"/>
-      <c r="B95" s="1"/>
-      <c r="C95" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D95" s="1"/>
-      <c r="E95" s="1"/>
-      <c r="F95" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="G95" s="15"/>
-      <c r="H95" s="1"/>
+      <c r="A95" s="1">
+        <v>9</v>
+      </c>
+      <c r="B95" s="3">
+        <v>887</v>
+      </c>
+      <c r="C95" s="2">
+        <v>53</v>
+      </c>
+      <c r="D95" s="3">
+        <v>900</v>
+      </c>
+      <c r="E95" s="3">
+        <v>-11.04</v>
+      </c>
+      <c r="F95" s="5"/>
+      <c r="G95" s="6"/>
+      <c r="H95" s="4"/>
       <c r="I95" s="1"/>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A96" s="1"/>
-      <c r="B96" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C96" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D96" s="1"/>
-      <c r="E96" s="1"/>
+    <row r="96" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A96" s="1">
+        <v>10</v>
+      </c>
+      <c r="B96" s="3">
+        <v>865</v>
+      </c>
+      <c r="C96" s="2">
+        <v>53</v>
+      </c>
+      <c r="D96" s="3">
+        <v>861</v>
+      </c>
+      <c r="E96" s="3">
+        <v>-28.04</v>
+      </c>
       <c r="F96" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G96" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="H96" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
+      </c>
+      <c r="G96" s="6">
+        <v>45317</v>
+      </c>
+      <c r="H96" s="4">
+        <v>7602</v>
       </c>
       <c r="I96" s="1"/>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="B97" s="3">
-        <v>891</v>
+        <v>862</v>
       </c>
       <c r="C97" s="2">
         <v>53</v>
       </c>
       <c r="D97" s="3">
-        <v>915.2</v>
+        <v>885.8</v>
       </c>
       <c r="E97" s="3">
-        <v>0.16</v>
+        <v>-0.24</v>
       </c>
       <c r="F97" s="5"/>
-      <c r="G97" s="15"/>
+      <c r="G97" s="6"/>
       <c r="H97" s="4"/>
       <c r="I97" s="1"/>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B98" s="3">
-        <v>947</v>
+        <v>797</v>
       </c>
       <c r="C98" s="2">
         <v>53</v>
       </c>
       <c r="D98" s="3">
-        <v>969.6</v>
+        <v>823.2</v>
       </c>
       <c r="E98" s="3">
-        <v>-1.44</v>
-      </c>
-      <c r="F98" s="5"/>
-      <c r="G98" s="15"/>
-      <c r="H98" s="4"/>
+        <v>2.16</v>
+      </c>
+      <c r="F98" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G98" s="6">
+        <v>45408</v>
+      </c>
+      <c r="H98" s="4">
+        <v>7602</v>
+      </c>
       <c r="I98" s="1"/>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B99" s="3">
-        <v>826</v>
+        <v>892</v>
       </c>
       <c r="C99" s="2">
         <v>53</v>
       </c>
       <c r="D99" s="3">
-        <v>838.6</v>
+        <v>916.6</v>
       </c>
       <c r="E99" s="3">
-        <v>-11.44</v>
-      </c>
-      <c r="F99" s="5"/>
-      <c r="G99" s="15"/>
-      <c r="H99" s="4"/>
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="F99" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G99" s="6">
+        <v>45317</v>
+      </c>
+      <c r="H99" s="4">
+        <v>7602</v>
+      </c>
       <c r="I99" s="1"/>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B100" s="3">
-        <v>838</v>
+        <v>901</v>
       </c>
       <c r="C100" s="2">
         <v>53</v>
       </c>
       <c r="D100" s="3">
-        <v>850.8</v>
+        <v>924.4</v>
       </c>
       <c r="E100" s="3">
-        <v>-11.24</v>
-      </c>
-      <c r="F100" s="5"/>
-      <c r="G100" s="15"/>
-      <c r="H100" s="4"/>
+        <v>0.64</v>
+      </c>
+      <c r="F100" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G100" s="6">
+        <v>45316</v>
+      </c>
+      <c r="H100" s="4">
+        <v>7598</v>
+      </c>
       <c r="I100" s="1"/>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="B101" s="3">
-        <v>880</v>
+        <v>892</v>
       </c>
       <c r="C101" s="2">
         <v>53</v>
       </c>
       <c r="D101" s="3">
-        <v>881.8</v>
+        <v>916.4</v>
       </c>
       <c r="E101" s="3">
-        <v>-22.24</v>
-      </c>
-      <c r="F101" s="5"/>
-      <c r="G101" s="15"/>
-      <c r="H101" s="4"/>
+        <v>0.36</v>
+      </c>
+      <c r="F101" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G101" s="6">
+        <v>45317</v>
+      </c>
+      <c r="H101" s="4">
+        <v>7907</v>
+      </c>
       <c r="I101" s="1"/>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="B102" s="3">
-        <v>774</v>
+        <v>943</v>
       </c>
       <c r="C102" s="2">
         <v>53</v>
       </c>
       <c r="D102" s="3">
-        <v>811</v>
+        <v>968.6</v>
       </c>
       <c r="E102" s="3">
-        <v>12.96</v>
+        <v>1.56</v>
       </c>
       <c r="F102" s="5"/>
-      <c r="G102" s="15"/>
-      <c r="H102" s="4"/>
+      <c r="G102" s="6">
+        <v>45317</v>
+      </c>
+      <c r="H102" s="4">
+        <v>7602</v>
+      </c>
       <c r="I102" s="1"/>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="B103" s="3">
-        <v>878</v>
+        <v>885</v>
       </c>
       <c r="C103" s="2">
         <v>53</v>
       </c>
       <c r="D103" s="3">
-        <v>901.2</v>
+        <v>911.6</v>
       </c>
       <c r="E103" s="3">
-        <v>-0.84</v>
+        <v>2.56</v>
       </c>
       <c r="F103" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="G103" s="15">
-        <v>45318</v>
+        <v>18</v>
+      </c>
+      <c r="G103" s="6">
+        <v>45316</v>
       </c>
       <c r="H103" s="4">
-        <v>7601</v>
+        <v>7598</v>
       </c>
       <c r="I103" s="1"/>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="B104" s="3">
-        <v>828</v>
+        <v>923</v>
       </c>
       <c r="C104" s="2">
         <v>53</v>
       </c>
       <c r="D104" s="3">
-        <v>853</v>
+        <v>946</v>
       </c>
       <c r="E104" s="3">
-        <v>-0.96</v>
-      </c>
-      <c r="F104" s="5"/>
-      <c r="G104" s="15"/>
-      <c r="H104" s="4"/>
+        <v>-1.04</v>
+      </c>
+      <c r="F104" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G104" s="6">
+        <v>45316</v>
+      </c>
+      <c r="H104" s="4">
+        <v>7598</v>
+      </c>
       <c r="I104" s="1"/>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="B105" s="3">
-        <v>887</v>
+        <v>869</v>
       </c>
       <c r="C105" s="2">
         <v>53</v>
       </c>
       <c r="D105" s="3">
-        <v>900</v>
+        <v>892.6</v>
       </c>
       <c r="E105" s="3">
-        <v>-11.04</v>
-      </c>
-      <c r="F105" s="5"/>
-      <c r="G105" s="15"/>
-      <c r="H105" s="4"/>
+        <v>-0.44</v>
+      </c>
+      <c r="F105" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G105" s="6">
+        <v>45317</v>
+      </c>
+      <c r="H105" s="4">
+        <v>7607</v>
+      </c>
       <c r="I105" s="1"/>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="B106" s="3">
-        <v>865</v>
+        <v>901</v>
       </c>
       <c r="C106" s="2">
         <v>53</v>
       </c>
       <c r="D106" s="3">
-        <v>861</v>
+        <v>926</v>
       </c>
       <c r="E106" s="3">
-        <v>-28.04</v>
-      </c>
-      <c r="F106" s="5"/>
-      <c r="G106" s="15"/>
-      <c r="H106" s="4"/>
+        <v>-0.96</v>
+      </c>
+      <c r="F106" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G106" s="6">
+        <v>45318</v>
+      </c>
+      <c r="H106" s="4">
+        <v>7601</v>
+      </c>
       <c r="I106" s="1"/>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="B107" s="3">
-        <v>862</v>
+        <v>906</v>
       </c>
       <c r="C107" s="2">
         <v>53</v>
       </c>
       <c r="D107" s="3">
-        <v>885.8</v>
+        <v>928</v>
       </c>
       <c r="E107" s="3">
-        <v>-0.24</v>
-      </c>
-      <c r="F107" s="5"/>
-      <c r="G107" s="15"/>
-      <c r="H107" s="4"/>
+        <v>-1.64</v>
+      </c>
+      <c r="F107" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G107" s="6">
+        <v>45317</v>
+      </c>
+      <c r="H107" s="4">
+        <v>7607</v>
+      </c>
       <c r="I107" s="1"/>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
-        <v>12</v>
-      </c>
-      <c r="B108" s="3">
-        <v>797</v>
-      </c>
-      <c r="C108" s="2">
-        <v>53</v>
-      </c>
-      <c r="D108" s="3">
-        <v>823.2</v>
-      </c>
-      <c r="E108" s="3">
-        <v>2.16</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="B108" s="3"/>
+      <c r="C108" s="2"/>
+      <c r="E108" s="1"/>
       <c r="F108" s="5"/>
-      <c r="G108" s="15"/>
-      <c r="H108" s="4"/>
+      <c r="G108" s="6"/>
+      <c r="H108" s="1"/>
       <c r="I108" s="1"/>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
-        <v>13</v>
-      </c>
-      <c r="B109" s="3">
-        <v>892</v>
-      </c>
-      <c r="C109" s="2">
-        <v>53</v>
-      </c>
-      <c r="D109" s="3">
-        <v>916.6</v>
-      </c>
-      <c r="E109" s="3">
-        <v>0.56000000000000005</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="B109" s="3"/>
+      <c r="C109" s="2"/>
+      <c r="D109" s="3"/>
+      <c r="E109" s="1"/>
       <c r="F109" s="5"/>
-      <c r="G109" s="15"/>
-      <c r="H109" s="4"/>
+      <c r="G109" s="6"/>
+      <c r="H109" s="1"/>
       <c r="I109" s="1"/>
     </row>
-    <row r="110" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
-        <v>14</v>
-      </c>
-      <c r="B110" s="3">
-        <v>901</v>
-      </c>
-      <c r="C110" s="2">
-        <v>53</v>
-      </c>
-      <c r="D110" s="3">
-        <v>924.4</v>
-      </c>
-      <c r="E110" s="3">
-        <v>0.64</v>
-      </c>
-      <c r="F110" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G110" s="15">
-        <v>45316</v>
-      </c>
-      <c r="H110" s="4">
-        <v>7598</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="B110" s="3"/>
+      <c r="C110" s="2"/>
+      <c r="D110" s="3"/>
+      <c r="E110" s="1"/>
+      <c r="F110" s="5"/>
+      <c r="G110" s="6"/>
+      <c r="H110" s="1"/>
       <c r="I110" s="1"/>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A111" s="1">
-        <v>15</v>
+      <c r="A111" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="B111" s="3">
-        <v>892</v>
-      </c>
-      <c r="C111" s="2">
-        <v>53</v>
-      </c>
-      <c r="D111" s="3">
-        <v>916.4</v>
+        <f>SUM(B87:B110)</f>
+        <v>18385</v>
+      </c>
+      <c r="C111" s="1">
+        <f>SUM(C87:C110)</f>
+        <v>1113</v>
+      </c>
+      <c r="D111" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="E111" s="3">
-        <v>0.36</v>
+        <v>-68.06</v>
       </c>
       <c r="F111" s="5"/>
-      <c r="G111" s="15"/>
-      <c r="H111" s="4"/>
+      <c r="G111" s="6"/>
+      <c r="H111" s="1"/>
       <c r="I111" s="1"/>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A112" s="1">
-        <v>16</v>
-      </c>
-      <c r="B112" s="3">
-        <v>943</v>
-      </c>
-      <c r="C112" s="2">
-        <v>53</v>
-      </c>
-      <c r="D112" s="3">
-        <v>968.6</v>
-      </c>
-      <c r="E112" s="3">
-        <v>1.56</v>
-      </c>
+      <c r="A112" s="1"/>
+      <c r="B112" s="1"/>
+      <c r="C112" s="1"/>
+      <c r="D112" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E112" s="1"/>
       <c r="F112" s="5"/>
-      <c r="G112" s="15"/>
-      <c r="H112" s="4"/>
+      <c r="G112" s="6"/>
+      <c r="H112" s="1"/>
       <c r="I112" s="1"/>
     </row>
-    <row r="113" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A113" s="1">
-        <v>17</v>
-      </c>
-      <c r="B113" s="3">
-        <v>885</v>
-      </c>
-      <c r="C113" s="2">
-        <v>53</v>
-      </c>
-      <c r="D113" s="3">
-        <v>911.6</v>
-      </c>
-      <c r="E113" s="3">
-        <v>2.56</v>
-      </c>
-      <c r="F113" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G113" s="15">
-        <v>45316</v>
-      </c>
-      <c r="H113" s="4">
-        <v>7598</v>
-      </c>
-      <c r="I113" s="1"/>
-    </row>
-    <row r="114" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A114" s="1">
-        <v>18</v>
-      </c>
-      <c r="B114" s="3">
-        <v>923</v>
-      </c>
-      <c r="C114" s="2">
-        <v>53</v>
-      </c>
-      <c r="D114" s="3">
-        <v>946</v>
-      </c>
-      <c r="E114" s="3">
-        <v>-1.04</v>
-      </c>
-      <c r="F114" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G114" s="15">
-        <v>45316</v>
-      </c>
-      <c r="H114" s="4">
-        <v>7598</v>
-      </c>
-      <c r="I114" s="1"/>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A114" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B114" s="1"/>
+      <c r="C114" s="1"/>
+      <c r="D114" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E114" s="7">
+        <v>18821.8</v>
+      </c>
+      <c r="F114" s="5"/>
+      <c r="G114" s="6"/>
+      <c r="H114" s="1"/>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A115" s="1">
-        <v>19</v>
-      </c>
-      <c r="B115" s="3">
-        <v>869</v>
-      </c>
-      <c r="C115" s="2">
-        <v>53</v>
-      </c>
-      <c r="D115" s="3">
-        <v>892.6</v>
+      <c r="A115" s="1"/>
+      <c r="B115" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C115" s="1"/>
+      <c r="D115" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="E115" s="3">
-        <v>-0.44</v>
+        <v>504.86</v>
       </c>
       <c r="F115" s="5"/>
-      <c r="G115" s="15"/>
-      <c r="H115" s="4"/>
-      <c r="I115" s="1"/>
+      <c r="G115" s="6"/>
+      <c r="H115" s="1"/>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A116" s="1">
-        <v>20</v>
-      </c>
-      <c r="B116" s="3">
-        <v>901</v>
-      </c>
-      <c r="C116" s="2">
-        <v>53</v>
-      </c>
-      <c r="D116" s="3">
-        <v>926</v>
-      </c>
-      <c r="E116" s="3">
-        <v>-0.96</v>
-      </c>
-      <c r="F116" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="G116" s="15">
-        <v>45318</v>
-      </c>
-      <c r="H116" s="4">
-        <v>7601</v>
-      </c>
-      <c r="I116" s="1"/>
+      <c r="A116" s="1"/>
+      <c r="B116" s="1"/>
+      <c r="C116" s="1"/>
+      <c r="D116" s="1"/>
+      <c r="E116" s="1"/>
+      <c r="F116" s="5"/>
+      <c r="G116" s="6"/>
+      <c r="H116" s="1"/>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A117" s="1">
-        <v>21</v>
-      </c>
-      <c r="B117" s="3">
-        <v>906</v>
-      </c>
-      <c r="C117" s="2">
-        <v>53</v>
-      </c>
-      <c r="D117" s="3">
-        <v>928</v>
-      </c>
-      <c r="E117" s="3">
-        <v>-1.64</v>
-      </c>
+      <c r="A117" s="1"/>
+      <c r="B117" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C117" s="1"/>
+      <c r="D117" s="1"/>
+      <c r="E117" s="1"/>
       <c r="F117" s="5"/>
-      <c r="G117" s="15"/>
-      <c r="H117" s="4"/>
-      <c r="I117" s="1"/>
+      <c r="G117" s="6"/>
+      <c r="H117" s="1"/>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A118" s="1">
-        <v>22</v>
-      </c>
-      <c r="B118" s="3"/>
-      <c r="C118" s="2"/>
+      <c r="A118" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B118" s="8">
+        <v>18316.939999999999</v>
+      </c>
+      <c r="C118" s="1"/>
+      <c r="D118" s="1"/>
       <c r="E118" s="1"/>
       <c r="F118" s="5"/>
-      <c r="G118" s="15"/>
+      <c r="G118" s="6"/>
       <c r="H118" s="1"/>
-      <c r="I118" s="1"/>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A119" s="1">
-        <v>23</v>
-      </c>
-      <c r="B119" s="3"/>
-      <c r="C119" s="2"/>
-      <c r="D119" s="3"/>
+      <c r="A119" s="1"/>
+      <c r="B119" s="1"/>
+      <c r="C119" s="1"/>
+      <c r="D119" s="1"/>
       <c r="E119" s="1"/>
       <c r="F119" s="5"/>
-      <c r="G119" s="15"/>
+      <c r="G119" s="6"/>
       <c r="H119" s="1"/>
-      <c r="I119" s="1"/>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A120" s="1">
-        <v>24</v>
-      </c>
-      <c r="B120" s="3"/>
-      <c r="C120" s="2"/>
-      <c r="D120" s="3"/>
+      <c r="A120" s="1"/>
+      <c r="B120" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C120" s="1"/>
+      <c r="D120" s="1"/>
       <c r="E120" s="1"/>
       <c r="F120" s="5"/>
-      <c r="G120" s="15"/>
+      <c r="G120" s="6"/>
       <c r="H120" s="1"/>
-      <c r="I120" s="1"/>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A121" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B121" s="3">
-        <f>SUM(B97:B120)</f>
-        <v>18385</v>
-      </c>
-      <c r="C121" s="1">
-        <f>SUM(C97:C120)</f>
-        <v>1113</v>
-      </c>
-      <c r="D121" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E121" s="3">
+      <c r="A121" s="1"/>
+      <c r="B121" s="1"/>
+      <c r="C121" s="9">
         <v>-68.06</v>
       </c>
+      <c r="D121" s="1"/>
+      <c r="E121" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="F121" s="5"/>
-      <c r="G121" s="15"/>
+      <c r="G121" s="6"/>
       <c r="H121" s="1"/>
-      <c r="I121" s="1"/>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A122" s="1"/>
       <c r="B122" s="1"/>
-      <c r="C122" s="1"/>
-      <c r="D122" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E122" s="1"/>
+      <c r="C122" s="9">
+        <v>-68.06</v>
+      </c>
+      <c r="D122" s="1"/>
+      <c r="E122" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="F122" s="5"/>
-      <c r="G122" s="15"/>
+      <c r="G122" s="6"/>
       <c r="H122" s="1"/>
-      <c r="I122" s="1"/>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B123" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C123" s="13"/>
+      <c r="D123" s="13"/>
+      <c r="E123" s="13"/>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A124" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B124" s="1"/>
-      <c r="C124" s="1"/>
-      <c r="D124" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E124" s="10">
-        <v>18821.8</v>
-      </c>
-      <c r="F124" s="5"/>
-      <c r="G124" s="15"/>
-      <c r="H124" s="1"/>
-    </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A125" s="1"/>
-      <c r="B125" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C125" s="1"/>
-      <c r="D125" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E125" s="3">
-        <v>504.86</v>
-      </c>
-      <c r="F125" s="5"/>
-      <c r="G125" s="15"/>
-      <c r="H125" s="1"/>
+      <c r="B124" s="14"/>
+      <c r="C124" s="14"/>
+      <c r="D124" s="14"/>
+      <c r="E124" s="14"/>
+    </row>
+    <row r="125" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A125" s="1">
+        <v>20</v>
+      </c>
+      <c r="B125" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C125" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D125" s="1"/>
+      <c r="E125" s="1"/>
+      <c r="F125" s="12">
+        <v>45316</v>
+      </c>
+      <c r="G125" s="12"/>
+      <c r="H125" s="12"/>
+      <c r="I125" s="1"/>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A126" s="1"/>
       <c r="B126" s="1"/>
-      <c r="C126" s="1"/>
+      <c r="C126" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="D126" s="1"/>
       <c r="E126" s="1"/>
-      <c r="F126" s="5"/>
-      <c r="G126" s="15"/>
+      <c r="F126" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G126" s="6"/>
       <c r="H126" s="1"/>
+      <c r="I126" s="1"/>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A127" s="1"/>
-      <c r="B127" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C127" s="1"/>
+      <c r="B127" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="D127" s="1"/>
       <c r="E127" s="1"/>
-      <c r="F127" s="5"/>
-      <c r="G127" s="15"/>
-      <c r="H127" s="1"/>
+      <c r="F127" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G127" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H127" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I127" s="1"/>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A128" s="1" t="s">
+      <c r="A128" s="1">
+        <v>1</v>
+      </c>
+      <c r="B128" s="3">
+        <v>923.07</v>
+      </c>
+      <c r="C128" s="2">
+        <v>62</v>
+      </c>
+      <c r="D128" s="3">
+        <v>947.4</v>
+      </c>
+      <c r="E128" s="3">
+        <v>-3.79</v>
+      </c>
+      <c r="F128" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G128" s="6">
+        <v>45318</v>
+      </c>
+      <c r="H128" s="4">
+        <v>7620</v>
+      </c>
+      <c r="I128" s="1"/>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A129" s="1">
+        <v>2</v>
+      </c>
+      <c r="B129" s="3">
+        <v>879.52</v>
+      </c>
+      <c r="C129" s="2">
+        <v>62</v>
+      </c>
+      <c r="D129" s="3">
+        <v>907.2</v>
+      </c>
+      <c r="E129" s="3">
+        <v>-0.44</v>
+      </c>
+      <c r="F129" s="5"/>
+      <c r="G129" s="6"/>
+      <c r="H129" s="4"/>
+      <c r="I129" s="1"/>
+    </row>
+    <row r="130" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A130" s="1">
+        <v>3</v>
+      </c>
+      <c r="B130" s="3">
+        <v>872.27</v>
+      </c>
+      <c r="C130" s="2">
+        <v>62</v>
+      </c>
+      <c r="D130" s="3">
+        <v>896</v>
+      </c>
+      <c r="E130" s="3">
+        <v>-4.3899999999999997</v>
+      </c>
+      <c r="F130" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G130" s="6">
+        <v>45318</v>
+      </c>
+      <c r="H130" s="4">
+        <v>7624</v>
+      </c>
+      <c r="I130" s="1"/>
+    </row>
+    <row r="131" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A131" s="1">
+        <v>4</v>
+      </c>
+      <c r="B131" s="3">
+        <v>860.93</v>
+      </c>
+      <c r="C131" s="2">
+        <v>62</v>
+      </c>
+      <c r="D131" s="3">
+        <v>886.8</v>
+      </c>
+      <c r="E131" s="3">
+        <v>-2.25</v>
+      </c>
+      <c r="F131" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G131" s="6">
+        <v>46049</v>
+      </c>
+      <c r="H131" s="4">
+        <v>7611</v>
+      </c>
+      <c r="I131" s="1"/>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A132" s="1">
+        <v>5</v>
+      </c>
+      <c r="B132" s="3">
+        <v>875.44</v>
+      </c>
+      <c r="C132" s="2">
+        <v>62</v>
+      </c>
+      <c r="D132" s="3">
+        <v>902.8</v>
+      </c>
+      <c r="E132" s="3">
+        <v>-0.76</v>
+      </c>
+      <c r="F132" s="5"/>
+      <c r="G132" s="6"/>
+      <c r="H132" s="4"/>
+      <c r="I132" s="1"/>
+    </row>
+    <row r="133" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A133" s="1">
+        <v>6</v>
+      </c>
+      <c r="B133" s="3">
+        <v>913.54</v>
+      </c>
+      <c r="C133" s="2">
+        <v>62</v>
+      </c>
+      <c r="D133" s="3">
+        <v>942.8</v>
+      </c>
+      <c r="E133" s="3">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="F133" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G133" s="6">
+        <v>45318</v>
+      </c>
+      <c r="H133" s="4">
+        <v>7622</v>
+      </c>
+      <c r="I133" s="1"/>
+    </row>
+    <row r="134" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A134" s="1">
+        <v>7</v>
+      </c>
+      <c r="B134" s="3">
+        <v>910.37</v>
+      </c>
+      <c r="C134" s="2">
+        <v>62</v>
+      </c>
+      <c r="D134" s="3">
+        <v>932.2</v>
+      </c>
+      <c r="E134" s="3">
+        <v>-6.29</v>
+      </c>
+      <c r="F134" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="G134" s="6">
+        <v>45318</v>
+      </c>
+      <c r="H134" s="4">
+        <v>7616</v>
+      </c>
+      <c r="I134" s="1"/>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A135" s="1">
+        <v>8</v>
+      </c>
+      <c r="B135" s="3">
+        <v>853.22</v>
+      </c>
+      <c r="C135" s="2">
+        <v>62</v>
+      </c>
+      <c r="D135" s="3">
+        <v>859.8</v>
+      </c>
+      <c r="E135" s="3">
+        <v>-21.54</v>
+      </c>
+      <c r="F135" s="5"/>
+      <c r="G135" s="6"/>
+      <c r="H135" s="4"/>
+      <c r="I135" s="1"/>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A136" s="1">
+        <v>9</v>
+      </c>
+      <c r="B136" s="3">
+        <v>857.75</v>
+      </c>
+      <c r="C136" s="2">
+        <v>62</v>
+      </c>
+      <c r="D136" s="3">
+        <v>882.6</v>
+      </c>
+      <c r="E136" s="3">
+        <v>-3.27</v>
+      </c>
+      <c r="F136" s="5"/>
+      <c r="G136" s="6"/>
+      <c r="H136" s="4"/>
+      <c r="I136" s="1"/>
+    </row>
+    <row r="137" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A137" s="1">
+        <v>10</v>
+      </c>
+      <c r="B137" s="3">
+        <v>916.27</v>
+      </c>
+      <c r="C137" s="2">
+        <v>62</v>
+      </c>
+      <c r="D137" s="3">
+        <v>942.2</v>
+      </c>
+      <c r="E137" s="3">
+        <v>-2.19</v>
+      </c>
+      <c r="F137" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G137" s="6">
+        <v>45318</v>
+      </c>
+      <c r="H137" s="4">
+        <v>7615</v>
+      </c>
+      <c r="I137" s="1"/>
+    </row>
+    <row r="138" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A138" s="1">
+        <v>11</v>
+      </c>
+      <c r="B138" s="3">
+        <v>902.66</v>
+      </c>
+      <c r="C138" s="2">
+        <v>62</v>
+      </c>
+      <c r="D138" s="3">
+        <v>931.6</v>
+      </c>
+      <c r="E138" s="3">
+        <v>0.82</v>
+      </c>
+      <c r="F138" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G138" s="6">
+        <v>45318</v>
+      </c>
+      <c r="H138" s="4">
+        <v>7612</v>
+      </c>
+      <c r="I138" s="1"/>
+    </row>
+    <row r="139" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A139" s="1">
+        <v>12</v>
+      </c>
+      <c r="B139" s="3">
+        <v>917.17</v>
+      </c>
+      <c r="C139" s="2">
+        <v>62</v>
+      </c>
+      <c r="D139" s="3">
+        <v>943.2</v>
+      </c>
+      <c r="E139" s="3">
+        <v>-2.09</v>
+      </c>
+      <c r="F139" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G139" s="6">
+        <v>45318</v>
+      </c>
+      <c r="H139" s="4">
+        <v>7622</v>
+      </c>
+      <c r="I139" s="1"/>
+    </row>
+    <row r="140" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A140" s="1">
+        <v>13</v>
+      </c>
+      <c r="B140" s="3">
+        <v>839.15</v>
+      </c>
+      <c r="C140" s="2">
+        <v>62</v>
+      </c>
+      <c r="D140" s="3">
+        <v>864.6</v>
+      </c>
+      <c r="E140" s="3">
+        <v>-2.67</v>
+      </c>
+      <c r="F140" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G140" s="6">
+        <v>45318</v>
+      </c>
+      <c r="H140" s="4">
+        <v>7613</v>
+      </c>
+      <c r="I140" s="1"/>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A141" s="1">
+        <v>14</v>
+      </c>
+      <c r="B141" s="3">
+        <v>892.68</v>
+      </c>
+      <c r="C141" s="2">
+        <v>62</v>
+      </c>
+      <c r="D141" s="3">
+        <v>920</v>
+      </c>
+      <c r="E141" s="3">
+        <v>-0.8</v>
+      </c>
+      <c r="F141" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="G141" s="6">
+        <v>45318</v>
+      </c>
+      <c r="H141" s="4">
+        <v>7617</v>
+      </c>
+      <c r="I141" s="1"/>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A142" s="1">
+        <v>15</v>
+      </c>
+      <c r="B142" s="3">
+        <v>915.81</v>
+      </c>
+      <c r="C142" s="2">
+        <v>62</v>
+      </c>
+      <c r="D142" s="3">
+        <v>942.6</v>
+      </c>
+      <c r="E142" s="3">
+        <v>-1.33</v>
+      </c>
+      <c r="F142" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G142" s="6">
+        <v>45318</v>
+      </c>
+      <c r="H142" s="4">
+        <v>7621</v>
+      </c>
+      <c r="I142" s="1"/>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A143" s="1">
+        <v>16</v>
+      </c>
+      <c r="B143" s="3">
+        <v>934.41</v>
+      </c>
+      <c r="C143" s="2">
+        <v>62</v>
+      </c>
+      <c r="D143" s="3">
+        <v>963.8</v>
+      </c>
+      <c r="E143" s="3">
+        <v>1.27</v>
+      </c>
+      <c r="F143" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="G143" s="6">
+        <v>45318</v>
+      </c>
+      <c r="H143" s="4">
+        <v>7618</v>
+      </c>
+      <c r="I143" s="1"/>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A144" s="1">
+        <v>17</v>
+      </c>
+      <c r="B144" s="3">
+        <v>876.8</v>
+      </c>
+      <c r="C144" s="2">
+        <v>62</v>
+      </c>
+      <c r="D144" s="3">
+        <v>902.2</v>
+      </c>
+      <c r="E144" s="3">
+        <v>-2.72</v>
+      </c>
+      <c r="F144" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="G144" s="6">
+        <v>45318</v>
+      </c>
+      <c r="H144" s="4">
+        <v>7617</v>
+      </c>
+      <c r="I144" s="1"/>
+    </row>
+    <row r="145" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A145" s="1">
+        <v>18</v>
+      </c>
+      <c r="B145" s="3">
+        <v>863.2</v>
+      </c>
+      <c r="C145" s="2">
+        <v>62</v>
+      </c>
+      <c r="D145" s="3">
+        <v>892.6</v>
+      </c>
+      <c r="E145" s="3">
+        <v>1.28</v>
+      </c>
+      <c r="F145" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G145" s="6">
+        <v>45318</v>
+      </c>
+      <c r="H145" s="4">
+        <v>7610</v>
+      </c>
+      <c r="I145" s="1"/>
+    </row>
+    <row r="146" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A146" s="1">
+        <v>19</v>
+      </c>
+      <c r="B146" s="3">
+        <v>843.24</v>
+      </c>
+      <c r="C146" s="2">
+        <v>62</v>
+      </c>
+      <c r="D146" s="3">
+        <v>868.8</v>
+      </c>
+      <c r="E146" s="3">
+        <v>-2.56</v>
+      </c>
+      <c r="F146" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G146" s="6">
+        <v>45317</v>
+      </c>
+      <c r="H146" s="4">
+        <v>7609</v>
+      </c>
+      <c r="I146" s="1"/>
+    </row>
+    <row r="147" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A147" s="1">
+        <v>20</v>
+      </c>
+      <c r="B147" s="3">
+        <v>865.01</v>
+      </c>
+      <c r="C147" s="2">
+        <v>62</v>
+      </c>
+      <c r="D147" s="3">
+        <v>890.4</v>
+      </c>
+      <c r="E147" s="3">
+        <v>-2.73</v>
+      </c>
+      <c r="F147" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G147" s="6">
+        <v>45317</v>
+      </c>
+      <c r="H147" s="4">
+        <v>7609</v>
+      </c>
+      <c r="I147" s="1"/>
+    </row>
+    <row r="148" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A148" s="1">
+        <v>21</v>
+      </c>
+      <c r="B148" s="3">
+        <v>855.48</v>
+      </c>
+      <c r="C148" s="2">
+        <v>62</v>
+      </c>
+      <c r="D148" s="3">
+        <v>881.2</v>
+      </c>
+      <c r="E148" s="3">
+        <v>-2.4</v>
+      </c>
+      <c r="F148" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="G148" s="6">
+        <v>45318</v>
+      </c>
+      <c r="H148" s="4">
+        <v>7611</v>
+      </c>
+      <c r="I148" s="1"/>
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A149" s="1">
+        <v>22</v>
+      </c>
+      <c r="B149" s="3"/>
+      <c r="C149" s="2"/>
+      <c r="E149" s="1"/>
+      <c r="F149" s="5"/>
+      <c r="G149" s="6"/>
+      <c r="H149" s="1"/>
+      <c r="I149" s="1"/>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A150" s="1">
+        <v>23</v>
+      </c>
+      <c r="B150" s="3"/>
+      <c r="C150" s="2"/>
+      <c r="D150" s="3"/>
+      <c r="E150" s="1"/>
+      <c r="F150" s="5"/>
+      <c r="G150" s="6"/>
+      <c r="H150" s="1"/>
+      <c r="I150" s="1"/>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A151" s="1">
+        <v>24</v>
+      </c>
+      <c r="B151" s="3"/>
+      <c r="C151" s="2"/>
+      <c r="D151" s="3"/>
+      <c r="E151" s="1"/>
+      <c r="F151" s="5"/>
+      <c r="G151" s="6"/>
+      <c r="H151" s="1"/>
+      <c r="I151" s="1"/>
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A152" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B152" s="8">
+        <f>SUM(B128:B151)</f>
+        <v>18567.989999999998</v>
+      </c>
+      <c r="C152" s="9">
+        <f>SUM(C128:C151)</f>
+        <v>1302</v>
+      </c>
+      <c r="D152" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E152" s="8">
+        <v>-57.78</v>
+      </c>
+      <c r="F152" s="5"/>
+      <c r="G152" s="6"/>
+      <c r="H152" s="1"/>
+      <c r="I152" s="1"/>
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A153" s="1"/>
+      <c r="B153" s="9">
+        <v>18568.11</v>
+      </c>
+      <c r="C153" s="9">
+        <v>590.59</v>
+      </c>
+      <c r="D153" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E153" s="1"/>
+      <c r="F153" s="5"/>
+      <c r="G153" s="6"/>
+      <c r="H153" s="1"/>
+      <c r="I153" s="1"/>
+    </row>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A155" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B155" s="1"/>
+      <c r="C155" s="1">
+        <v>19100.8</v>
+      </c>
+      <c r="D155" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E155" s="7"/>
+      <c r="F155" s="5"/>
+      <c r="G155" s="6"/>
+      <c r="H155" s="1"/>
+    </row>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A156" s="1"/>
+      <c r="B156" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C156" s="1">
+        <v>590.59</v>
+      </c>
+      <c r="D156" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E156" s="3"/>
+      <c r="F156" s="5"/>
+      <c r="G156" s="6"/>
+      <c r="H156" s="1"/>
+    </row>
+    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A157" s="1"/>
+      <c r="B157" s="1"/>
+      <c r="C157" s="1"/>
+      <c r="D157" s="1"/>
+      <c r="E157" s="1"/>
+      <c r="F157" s="5"/>
+      <c r="G157" s="6"/>
+      <c r="H157" s="1"/>
+    </row>
+    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A158" s="1"/>
+      <c r="B158" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C158" s="1"/>
+      <c r="D158" s="1"/>
+      <c r="E158" s="1"/>
+      <c r="F158" s="5"/>
+      <c r="G158" s="6"/>
+      <c r="H158" s="1"/>
+    </row>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A159" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B128" s="11">
-        <v>18316.939999999999</v>
-      </c>
-      <c r="C128" s="1"/>
-      <c r="D128" s="1"/>
-      <c r="E128" s="1"/>
-      <c r="F128" s="5"/>
-      <c r="G128" s="15"/>
-      <c r="H128" s="1"/>
-    </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A129" s="1"/>
-      <c r="B129" s="1"/>
-      <c r="C129" s="1"/>
-      <c r="D129" s="1"/>
-      <c r="E129" s="1"/>
-      <c r="F129" s="5"/>
-      <c r="G129" s="15"/>
-      <c r="H129" s="1"/>
-    </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A130" s="1"/>
-      <c r="B130" s="1" t="s">
+      <c r="B159" s="8">
+        <v>18510.21</v>
+      </c>
+      <c r="C159" s="1"/>
+      <c r="D159" s="1"/>
+      <c r="E159" s="1"/>
+      <c r="F159" s="5"/>
+      <c r="G159" s="6"/>
+      <c r="H159" s="1"/>
+    </row>
+    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A160" s="1"/>
+      <c r="B160" s="1"/>
+      <c r="C160" s="1"/>
+      <c r="D160" s="1"/>
+      <c r="E160" s="1"/>
+      <c r="F160" s="5"/>
+      <c r="G160" s="6"/>
+      <c r="H160" s="1"/>
+    </row>
+    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A161" s="1"/>
+      <c r="B161" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C130" s="1"/>
-      <c r="D130" s="1"/>
-      <c r="E130" s="1"/>
-      <c r="F130" s="5"/>
-      <c r="G130" s="15"/>
-      <c r="H130" s="1"/>
-    </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A131" s="1"/>
-      <c r="B131" s="1"/>
-      <c r="C131" s="12">
-        <v>-68.06</v>
-      </c>
-      <c r="D131" s="1"/>
-      <c r="E131" s="1" t="s">
+      <c r="C161" s="1"/>
+      <c r="D161" s="1"/>
+      <c r="E161" s="1"/>
+      <c r="F161" s="5"/>
+      <c r="G161" s="6"/>
+      <c r="H161" s="1"/>
+    </row>
+    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A162" s="1"/>
+      <c r="B162" s="9">
+        <v>-57.78</v>
+      </c>
+      <c r="C162" s="9"/>
+      <c r="D162" s="1"/>
+      <c r="E162" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F131" s="5"/>
-      <c r="G131" s="15"/>
-      <c r="H131" s="1"/>
-    </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A132" s="1"/>
-      <c r="B132" s="1"/>
-      <c r="C132" s="12">
-        <v>-68.06</v>
-      </c>
-      <c r="D132" s="1"/>
-      <c r="E132" s="1" t="s">
+      <c r="F162" s="5"/>
+      <c r="G162" s="6"/>
+      <c r="H162" s="1"/>
+    </row>
+    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A163" s="1"/>
+      <c r="B163" s="9">
+        <v>-57.78</v>
+      </c>
+      <c r="C163" s="9"/>
+      <c r="D163" s="1"/>
+      <c r="E163" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F132" s="5"/>
-      <c r="G132" s="15"/>
-      <c r="H132" s="1"/>
+      <c r="F163" s="5"/>
+      <c r="G163" s="6"/>
+      <c r="H163" s="1"/>
+    </row>
+    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B164" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C164" s="13"/>
+      <c r="D164" s="13"/>
+      <c r="E164" s="13"/>
+    </row>
+    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B165" s="14"/>
+      <c r="C165" s="14"/>
+      <c r="D165" s="14"/>
+      <c r="E165" s="14"/>
+    </row>
+    <row r="166" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A166" s="1">
+        <v>20</v>
+      </c>
+      <c r="B166" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C166" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D166" s="1"/>
+      <c r="E166" s="1"/>
+      <c r="F166" s="12">
+        <v>45317</v>
+      </c>
+      <c r="G166" s="12"/>
+      <c r="H166" s="12"/>
+      <c r="I166" s="1"/>
+    </row>
+    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A167" s="1"/>
+      <c r="B167" s="1"/>
+      <c r="C167" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D167" s="1"/>
+      <c r="E167" s="1"/>
+      <c r="F167" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G167" s="6"/>
+      <c r="H167" s="1"/>
+      <c r="I167" s="1"/>
+    </row>
+    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A168" s="1"/>
+      <c r="B168" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C168" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D168" s="1"/>
+      <c r="E168" s="1"/>
+      <c r="F168" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G168" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H168" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I168" s="1"/>
+    </row>
+    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A169" s="1">
+        <v>1</v>
+      </c>
+      <c r="B169" s="3">
+        <v>874.99</v>
+      </c>
+      <c r="C169" s="2">
+        <v>62</v>
+      </c>
+      <c r="D169" s="3">
+        <v>902.6</v>
+      </c>
+      <c r="E169" s="3">
+        <v>-0.51</v>
+      </c>
+      <c r="F169" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="G169" s="6">
+        <v>45320</v>
+      </c>
+      <c r="H169" s="4">
+        <v>7635</v>
+      </c>
+      <c r="I169" s="1"/>
+    </row>
+    <row r="170" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A170" s="1">
+        <v>2</v>
+      </c>
+      <c r="B170" s="3">
+        <v>948.02</v>
+      </c>
+      <c r="C170" s="2">
+        <v>62</v>
+      </c>
+      <c r="D170" s="3">
+        <v>975.6</v>
+      </c>
+      <c r="E170" s="3">
+        <v>-0.54</v>
+      </c>
+      <c r="F170" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="G170" s="6">
+        <v>45320</v>
+      </c>
+      <c r="H170" s="4">
+        <v>2934</v>
+      </c>
+      <c r="I170" s="1"/>
+    </row>
+    <row r="171" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A171" s="1">
+        <v>3</v>
+      </c>
+      <c r="B171" s="3">
+        <v>894.04</v>
+      </c>
+      <c r="C171" s="2">
+        <v>62</v>
+      </c>
+      <c r="D171" s="3">
+        <v>918.6</v>
+      </c>
+      <c r="E171" s="3">
+        <v>-3.56</v>
+      </c>
+      <c r="F171" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G171" s="6">
+        <v>45318</v>
+      </c>
+      <c r="H171" s="4">
+        <v>7623</v>
+      </c>
+      <c r="I171" s="1"/>
+    </row>
+    <row r="172" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A172" s="1">
+        <v>4</v>
+      </c>
+      <c r="B172" s="3">
+        <v>927.15</v>
+      </c>
+      <c r="C172" s="2">
+        <v>62</v>
+      </c>
+      <c r="D172" s="3">
+        <v>954.6</v>
+      </c>
+      <c r="E172" s="3">
+        <v>-0.67</v>
+      </c>
+      <c r="F172" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G172" s="6">
+        <v>45320</v>
+      </c>
+      <c r="H172" s="4">
+        <v>7636</v>
+      </c>
+      <c r="I172" s="1"/>
+    </row>
+    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A173" s="1">
+        <v>5</v>
+      </c>
+      <c r="B173" s="3">
+        <v>874.99</v>
+      </c>
+      <c r="C173" s="2">
+        <v>62</v>
+      </c>
+      <c r="D173" s="3">
+        <v>902.8</v>
+      </c>
+      <c r="E173" s="3">
+        <v>-0.31</v>
+      </c>
+      <c r="F173" s="5"/>
+      <c r="G173" s="6"/>
+      <c r="H173" s="4"/>
+      <c r="I173" s="1"/>
+    </row>
+    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A174" s="1">
+        <v>6</v>
+      </c>
+      <c r="B174" s="3">
+        <v>873.17</v>
+      </c>
+      <c r="C174" s="2">
+        <v>62</v>
+      </c>
+      <c r="D174" s="3">
+        <v>899</v>
+      </c>
+      <c r="E174" s="3">
+        <v>-2.29</v>
+      </c>
+      <c r="F174" s="5"/>
+      <c r="G174" s="6"/>
+      <c r="H174" s="4"/>
+      <c r="I174" s="1"/>
+    </row>
+    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A175" s="1">
+        <v>7</v>
+      </c>
+      <c r="B175" s="3">
+        <v>815.11</v>
+      </c>
+      <c r="C175" s="2">
+        <v>62</v>
+      </c>
+      <c r="D175" s="3">
+        <v>840.2</v>
+      </c>
+      <c r="E175" s="3">
+        <v>-3.03</v>
+      </c>
+      <c r="F175" s="5"/>
+      <c r="G175" s="6"/>
+      <c r="H175" s="4"/>
+      <c r="I175" s="1"/>
+    </row>
+    <row r="176" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A176" s="1">
+        <v>8</v>
+      </c>
+      <c r="B176" s="3">
+        <v>949.83</v>
+      </c>
+      <c r="C176" s="2">
+        <v>62</v>
+      </c>
+      <c r="D176" s="3">
+        <v>975.6</v>
+      </c>
+      <c r="E176" s="3">
+        <v>-2.35</v>
+      </c>
+      <c r="F176" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="G176" s="6">
+        <v>45318</v>
+      </c>
+      <c r="H176" s="4">
+        <v>7627</v>
+      </c>
+      <c r="I176" s="1"/>
+    </row>
+    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A177" s="1">
+        <v>9</v>
+      </c>
+      <c r="B177" s="3">
+        <v>815.87</v>
+      </c>
+      <c r="C177" s="2">
+        <v>62</v>
+      </c>
+      <c r="D177" s="3">
+        <v>841.8</v>
+      </c>
+      <c r="E177" s="3">
+        <v>-2.19</v>
+      </c>
+      <c r="F177" s="5"/>
+      <c r="G177" s="6"/>
+      <c r="H177" s="4"/>
+      <c r="I177" s="1"/>
+    </row>
+    <row r="178" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A178" s="1">
+        <v>10</v>
+      </c>
+      <c r="B178" s="3">
+        <v>869.55</v>
+      </c>
+      <c r="C178" s="2">
+        <v>62</v>
+      </c>
+      <c r="D178" s="3">
+        <v>896.6</v>
+      </c>
+      <c r="E178" s="3">
+        <v>-1.07</v>
+      </c>
+      <c r="F178" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G178" s="6">
+        <v>45318</v>
+      </c>
+      <c r="H178" s="4">
+        <v>7623</v>
+      </c>
+      <c r="I178" s="1"/>
+    </row>
+    <row r="179" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A179" s="1">
+        <v>11</v>
+      </c>
+      <c r="B179" s="3">
+        <v>877.71</v>
+      </c>
+      <c r="C179" s="2">
+        <v>62</v>
+      </c>
+      <c r="D179" s="3">
+        <v>905.6</v>
+      </c>
+      <c r="E179" s="3">
+        <v>-0.23</v>
+      </c>
+      <c r="F179" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G179" s="6">
+        <v>45318</v>
+      </c>
+      <c r="H179" s="4">
+        <v>7625</v>
+      </c>
+      <c r="I179" s="1"/>
+    </row>
+    <row r="180" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A180" s="1">
+        <v>12</v>
+      </c>
+      <c r="B180" s="3">
+        <v>889.96</v>
+      </c>
+      <c r="C180" s="2">
+        <v>62</v>
+      </c>
+      <c r="D180" s="3">
+        <v>895</v>
+      </c>
+      <c r="E180" s="3">
+        <v>-23.08</v>
+      </c>
+      <c r="F180" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G180" s="6">
+        <v>45318</v>
+      </c>
+      <c r="H180" s="4">
+        <v>7623</v>
+      </c>
+      <c r="I180" s="1"/>
+    </row>
+    <row r="181" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A181" s="1">
+        <v>13</v>
+      </c>
+      <c r="B181" s="3">
+        <v>879.52</v>
+      </c>
+      <c r="C181" s="2">
+        <v>62</v>
+      </c>
+      <c r="D181" s="3">
+        <v>905.4</v>
+      </c>
+      <c r="E181" s="3">
+        <v>-2.2400000000000002</v>
+      </c>
+      <c r="F181" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G181" s="6">
+        <v>45318</v>
+      </c>
+      <c r="H181" s="4">
+        <v>7610</v>
+      </c>
+      <c r="I181" s="1"/>
+    </row>
+    <row r="182" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A182" s="1">
+        <v>14</v>
+      </c>
+      <c r="B182" s="3">
+        <v>814.66</v>
+      </c>
+      <c r="C182" s="2">
+        <v>62</v>
+      </c>
+      <c r="D182" s="3">
+        <v>840.8</v>
+      </c>
+      <c r="E182" s="3">
+        <v>-1.98</v>
+      </c>
+      <c r="F182" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G182" s="6">
+        <v>45318</v>
+      </c>
+      <c r="H182" s="4">
+        <v>7625</v>
+      </c>
+      <c r="I182" s="1"/>
+    </row>
+    <row r="183" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A183" s="1">
+        <v>15</v>
+      </c>
+      <c r="B183" s="3">
+        <v>910.82</v>
+      </c>
+      <c r="C183" s="2">
+        <v>62</v>
+      </c>
+      <c r="D183" s="3">
+        <v>935.6</v>
+      </c>
+      <c r="E183" s="3">
+        <v>-3.34</v>
+      </c>
+      <c r="F183" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G183" s="6">
+        <v>45318</v>
+      </c>
+      <c r="H183" s="4">
+        <v>7624</v>
+      </c>
+      <c r="I183" s="1"/>
+    </row>
+    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A184" s="1">
+        <v>16</v>
+      </c>
+      <c r="B184" s="3">
+        <v>894.04</v>
+      </c>
+      <c r="C184" s="2">
+        <v>62</v>
+      </c>
+      <c r="D184" s="3">
+        <v>920.2</v>
+      </c>
+      <c r="E184" s="3">
+        <v>-1.96</v>
+      </c>
+      <c r="F184" s="5"/>
+      <c r="G184" s="6"/>
+      <c r="H184" s="4"/>
+      <c r="I184" s="1"/>
+    </row>
+    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A185" s="1">
+        <v>17</v>
+      </c>
+      <c r="B185" s="3">
+        <v>903.57</v>
+      </c>
+      <c r="C185" s="2">
+        <v>62</v>
+      </c>
+      <c r="D185" s="3">
+        <v>935.6</v>
+      </c>
+      <c r="E185" s="3">
+        <v>3.91</v>
+      </c>
+      <c r="F185" s="5"/>
+      <c r="G185" s="6"/>
+      <c r="H185" s="4"/>
+      <c r="I185" s="1"/>
+    </row>
+    <row r="186" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A186" s="1">
+        <v>18</v>
+      </c>
+      <c r="B186" s="3">
+        <v>851.4</v>
+      </c>
+      <c r="C186" s="2">
+        <v>62</v>
+      </c>
+      <c r="D186" s="3">
+        <v>880</v>
+      </c>
+      <c r="E186" s="3">
+        <v>0.48</v>
+      </c>
+      <c r="F186" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="G186" s="6">
+        <v>45320</v>
+      </c>
+      <c r="H186" s="4">
+        <v>7630</v>
+      </c>
+      <c r="I186" s="1"/>
+    </row>
+    <row r="187" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A187" s="1">
+        <v>19</v>
+      </c>
+      <c r="B187" s="3">
+        <v>861.83</v>
+      </c>
+      <c r="C187" s="2">
+        <v>62</v>
+      </c>
+      <c r="D187" s="3">
+        <v>889</v>
+      </c>
+      <c r="E187" s="3">
+        <v>-0.95</v>
+      </c>
+      <c r="F187" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G187" s="6">
+        <v>45318</v>
+      </c>
+      <c r="H187" s="4">
+        <v>7624</v>
+      </c>
+      <c r="I187" s="1"/>
+    </row>
+    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A188" s="1">
+        <v>20</v>
+      </c>
+      <c r="B188" s="3">
+        <v>934.31</v>
+      </c>
+      <c r="C188" s="2">
+        <v>62</v>
+      </c>
+      <c r="D188" s="3">
+        <v>966</v>
+      </c>
+      <c r="E188" s="3">
+        <v>3.57</v>
+      </c>
+      <c r="F188" s="5"/>
+      <c r="G188" s="6"/>
+      <c r="H188" s="4"/>
+      <c r="I188" s="1"/>
+    </row>
+    <row r="189" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A189" s="1">
+        <v>21</v>
+      </c>
+      <c r="B189" s="3">
+        <v>855.48</v>
+      </c>
+      <c r="C189" s="2">
+        <v>62</v>
+      </c>
+      <c r="D189" s="3">
+        <v>882.4</v>
+      </c>
+      <c r="E189" s="3">
+        <v>-1.2</v>
+      </c>
+      <c r="F189" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G189" s="6">
+        <v>45318</v>
+      </c>
+      <c r="H189" s="4">
+        <v>7625</v>
+      </c>
+      <c r="I189" s="1"/>
+    </row>
+    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A190" s="1">
+        <v>22</v>
+      </c>
+      <c r="B190" s="3"/>
+      <c r="C190" s="2"/>
+      <c r="E190" s="1"/>
+      <c r="F190" s="5"/>
+      <c r="G190" s="6"/>
+      <c r="H190" s="1"/>
+      <c r="I190" s="1"/>
+    </row>
+    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A191" s="1">
+        <v>23</v>
+      </c>
+      <c r="B191" s="3"/>
+      <c r="C191" s="2"/>
+      <c r="D191" s="3"/>
+      <c r="E191" s="1"/>
+      <c r="F191" s="5"/>
+      <c r="G191" s="6"/>
+      <c r="H191" s="1"/>
+      <c r="I191" s="1"/>
+    </row>
+    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A192" s="1">
+        <v>24</v>
+      </c>
+      <c r="B192" s="3"/>
+      <c r="C192" s="2"/>
+      <c r="D192" s="3"/>
+      <c r="E192" s="1"/>
+      <c r="F192" s="5"/>
+      <c r="G192" s="6"/>
+      <c r="H192" s="1"/>
+      <c r="I192" s="1"/>
+    </row>
+    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A193" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B193" s="8">
+        <f>SUM(B169:B192)</f>
+        <v>18516.02</v>
+      </c>
+      <c r="C193" s="9">
+        <f>SUM(C169:C192)</f>
+        <v>1302</v>
+      </c>
+      <c r="D193" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E193" s="8">
+        <v>-43.61</v>
+      </c>
+      <c r="F193" s="5"/>
+      <c r="G193" s="6"/>
+      <c r="H193" s="1"/>
+      <c r="I193" s="1"/>
+    </row>
+    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A194" s="1"/>
+      <c r="B194" s="9">
+        <v>18515.95</v>
+      </c>
+      <c r="C194" s="9">
+        <v>590.59</v>
+      </c>
+      <c r="D194" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E194" s="1"/>
+      <c r="F194" s="5"/>
+      <c r="G194" s="6"/>
+      <c r="H194" s="1"/>
+      <c r="I194" s="1"/>
+    </row>
+    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A196" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B196" s="1"/>
+      <c r="C196" s="8">
+        <v>19063</v>
+      </c>
+      <c r="D196" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E196" s="7"/>
+      <c r="F196" s="5"/>
+      <c r="G196" s="6"/>
+      <c r="H196" s="1"/>
+    </row>
+    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A197" s="1"/>
+      <c r="B197" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C197" s="8">
+        <v>590.59</v>
+      </c>
+      <c r="D197" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E197" s="3"/>
+      <c r="F197" s="5"/>
+      <c r="G197" s="6"/>
+      <c r="H197" s="1"/>
+    </row>
+    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A198" s="1"/>
+      <c r="B198" s="1"/>
+      <c r="C198" s="1"/>
+      <c r="D198" s="1"/>
+      <c r="E198" s="1"/>
+      <c r="F198" s="5"/>
+      <c r="G198" s="6"/>
+      <c r="H198" s="1"/>
+    </row>
+    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A199" s="1"/>
+      <c r="B199" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C199" s="1"/>
+      <c r="D199" s="1"/>
+      <c r="E199" s="1"/>
+      <c r="F199" s="5"/>
+      <c r="G199" s="6"/>
+      <c r="H199" s="1"/>
+    </row>
+    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A200" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B200" s="8">
+        <v>18472.41</v>
+      </c>
+      <c r="C200" s="1"/>
+      <c r="D200" s="1"/>
+      <c r="E200" s="1"/>
+      <c r="F200" s="5"/>
+      <c r="G200" s="6"/>
+      <c r="H200" s="1"/>
+    </row>
+    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A201" s="1"/>
+      <c r="B201" s="1"/>
+      <c r="C201" s="1"/>
+      <c r="D201" s="1"/>
+      <c r="E201" s="1"/>
+      <c r="F201" s="5"/>
+      <c r="G201" s="6"/>
+      <c r="H201" s="1"/>
+    </row>
+    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A202" s="1"/>
+      <c r="B202" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C202" s="1"/>
+      <c r="D202" s="1"/>
+      <c r="E202" s="1"/>
+      <c r="F202" s="5"/>
+      <c r="G202" s="6"/>
+      <c r="H202" s="1"/>
+    </row>
+    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A203" s="1"/>
+      <c r="B203" s="1"/>
+      <c r="C203" s="9">
+        <v>-43.61</v>
+      </c>
+      <c r="D203" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E203" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F203" s="5"/>
+      <c r="G203" s="6"/>
+      <c r="H203" s="1"/>
+    </row>
+    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A204" s="1"/>
+      <c r="B204" s="1"/>
+      <c r="C204" s="9">
+        <v>-43.61</v>
+      </c>
+      <c r="D204" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E204" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F204" s="5"/>
+      <c r="G204" s="6"/>
+      <c r="H204" s="1"/>
+    </row>
+    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B205" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C205" s="13"/>
+      <c r="D205" s="13"/>
+      <c r="E205" s="13"/>
+    </row>
+    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B206" s="14"/>
+      <c r="C206" s="14"/>
+      <c r="D206" s="14"/>
+      <c r="E206" s="14"/>
+    </row>
+    <row r="207" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A207" s="1">
+        <v>20</v>
+      </c>
+      <c r="B207" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C207" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D207" s="1"/>
+      <c r="E207" s="1"/>
+      <c r="F207" s="12">
+        <v>45318</v>
+      </c>
+      <c r="G207" s="12"/>
+      <c r="H207" s="12"/>
+      <c r="I207" s="1"/>
+    </row>
+    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A208" s="1"/>
+      <c r="B208" s="1"/>
+      <c r="C208" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D208" s="1"/>
+      <c r="E208" s="1"/>
+      <c r="F208" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G208" s="6"/>
+      <c r="H208" s="1"/>
+      <c r="I208" s="1"/>
+    </row>
+    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A209" s="1"/>
+      <c r="B209" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C209" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D209" s="1"/>
+      <c r="E209" s="1"/>
+      <c r="F209" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G209" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H209" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I209" s="1"/>
+    </row>
+    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A210" s="1">
+        <v>1</v>
+      </c>
+      <c r="B210" s="3">
+        <v>866</v>
+      </c>
+      <c r="C210" s="2">
+        <v>53</v>
+      </c>
+      <c r="D210" s="3">
+        <v>891.2</v>
+      </c>
+      <c r="E210" s="3">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="F210" s="5"/>
+      <c r="G210" s="6"/>
+      <c r="H210" s="4"/>
+      <c r="I210" s="1"/>
+    </row>
+    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A211" s="1">
+        <v>2</v>
+      </c>
+      <c r="B211" s="3">
+        <v>881</v>
+      </c>
+      <c r="C211" s="2">
+        <v>53</v>
+      </c>
+      <c r="D211" s="3">
+        <v>905.2</v>
+      </c>
+      <c r="E211" s="3">
+        <v>0.16</v>
+      </c>
+      <c r="F211" s="5"/>
+      <c r="G211" s="6"/>
+      <c r="H211" s="4"/>
+      <c r="I211" s="1"/>
+    </row>
+    <row r="212" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A212" s="1">
+        <v>3</v>
+      </c>
+      <c r="B212" s="3">
+        <v>899</v>
+      </c>
+      <c r="C212" s="2">
+        <v>53</v>
+      </c>
+      <c r="D212" s="3">
+        <v>925.2</v>
+      </c>
+      <c r="E212" s="3">
+        <v>2.16</v>
+      </c>
+      <c r="F212" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="G212" s="6">
+        <v>45318</v>
+      </c>
+      <c r="H212" s="4">
+        <v>7619</v>
+      </c>
+      <c r="I212" s="1"/>
+    </row>
+    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A213" s="1">
+        <v>4</v>
+      </c>
+      <c r="B213" s="3">
+        <v>875</v>
+      </c>
+      <c r="C213" s="2">
+        <v>53</v>
+      </c>
+      <c r="D213" s="3">
+        <v>901</v>
+      </c>
+      <c r="E213" s="3">
+        <v>1.96</v>
+      </c>
+      <c r="F213" s="5"/>
+      <c r="G213" s="6"/>
+      <c r="H213" s="4"/>
+      <c r="I213" s="1"/>
+    </row>
+    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A214" s="1">
+        <v>5</v>
+      </c>
+      <c r="B214" s="3">
+        <v>885</v>
+      </c>
+      <c r="C214" s="2">
+        <v>53</v>
+      </c>
+      <c r="D214" s="3">
+        <v>910.8</v>
+      </c>
+      <c r="E214" s="3">
+        <v>1.76</v>
+      </c>
+      <c r="F214" s="5"/>
+      <c r="G214" s="6"/>
+      <c r="H214" s="4"/>
+      <c r="I214" s="1"/>
+    </row>
+    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A215" s="1">
+        <v>6</v>
+      </c>
+      <c r="B215" s="3">
+        <v>834</v>
+      </c>
+      <c r="C215" s="2">
+        <v>53</v>
+      </c>
+      <c r="D215" s="3">
+        <v>859.2</v>
+      </c>
+      <c r="E215" s="3">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="F215" s="5"/>
+      <c r="G215" s="6"/>
+      <c r="H215" s="4"/>
+      <c r="I215" s="1"/>
+    </row>
+    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A216" s="1">
+        <v>7</v>
+      </c>
+      <c r="B216" s="3">
+        <v>853</v>
+      </c>
+      <c r="C216" s="2">
+        <v>53</v>
+      </c>
+      <c r="D216" s="3">
+        <v>876.2</v>
+      </c>
+      <c r="E216" s="3">
+        <v>-0.84</v>
+      </c>
+      <c r="F216" s="5"/>
+      <c r="G216" s="6"/>
+      <c r="H216" s="4"/>
+      <c r="I216" s="1"/>
+    </row>
+    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A217" s="1">
+        <v>8</v>
+      </c>
+      <c r="B217" s="3">
+        <v>864</v>
+      </c>
+      <c r="C217" s="2">
+        <v>53</v>
+      </c>
+      <c r="D217" s="3">
+        <v>887.4</v>
+      </c>
+      <c r="E217" s="3">
+        <v>-0.64</v>
+      </c>
+      <c r="F217" s="5"/>
+      <c r="G217" s="6"/>
+      <c r="H217" s="4"/>
+      <c r="I217" s="1"/>
+    </row>
+    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A218" s="1">
+        <v>9</v>
+      </c>
+      <c r="B218" s="3">
+        <v>893</v>
+      </c>
+      <c r="C218" s="2">
+        <v>53</v>
+      </c>
+      <c r="D218" s="3">
+        <v>919.6</v>
+      </c>
+      <c r="E218" s="3">
+        <v>2.56</v>
+      </c>
+      <c r="F218" s="5"/>
+      <c r="G218" s="6"/>
+      <c r="H218" s="4"/>
+      <c r="I218" s="1"/>
+    </row>
+    <row r="219" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A219" s="1">
+        <v>10</v>
+      </c>
+      <c r="B219" s="3">
+        <v>860</v>
+      </c>
+      <c r="C219" s="2">
+        <v>53</v>
+      </c>
+      <c r="D219" s="3">
+        <v>886.2</v>
+      </c>
+      <c r="E219" s="3">
+        <v>2.16</v>
+      </c>
+      <c r="F219" s="5"/>
+      <c r="G219" s="6"/>
+      <c r="H219" s="4"/>
+      <c r="I219" s="1"/>
+    </row>
+    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A220" s="1">
+        <v>11</v>
+      </c>
+      <c r="B220" s="3">
+        <v>929</v>
+      </c>
+      <c r="C220" s="2">
+        <v>53</v>
+      </c>
+      <c r="D220" s="3">
+        <v>955.6</v>
+      </c>
+      <c r="E220" s="3">
+        <v>2.56</v>
+      </c>
+      <c r="F220" s="5"/>
+      <c r="G220" s="6"/>
+      <c r="H220" s="4"/>
+      <c r="I220" s="1"/>
+    </row>
+    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A221" s="1">
+        <v>12</v>
+      </c>
+      <c r="B221" s="3">
+        <v>910</v>
+      </c>
+      <c r="C221" s="2">
+        <v>53</v>
+      </c>
+      <c r="D221" s="3">
+        <v>936</v>
+      </c>
+      <c r="E221" s="3">
+        <v>1.96</v>
+      </c>
+      <c r="F221" s="5"/>
+      <c r="G221" s="6"/>
+      <c r="H221" s="4"/>
+      <c r="I221" s="1"/>
+    </row>
+    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A222" s="1">
+        <v>13</v>
+      </c>
+      <c r="B222" s="3">
+        <v>864</v>
+      </c>
+      <c r="C222" s="2">
+        <v>53</v>
+      </c>
+      <c r="D222" s="3">
+        <v>890</v>
+      </c>
+      <c r="E222" s="3">
+        <v>1.96</v>
+      </c>
+      <c r="F222" s="5"/>
+      <c r="G222" s="6"/>
+      <c r="H222" s="4"/>
+      <c r="I222" s="1"/>
+    </row>
+    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A223" s="1">
+        <v>14</v>
+      </c>
+      <c r="B223" s="3">
+        <v>798</v>
+      </c>
+      <c r="C223" s="2">
+        <v>53</v>
+      </c>
+      <c r="D223" s="3">
+        <v>823.2</v>
+      </c>
+      <c r="E223" s="3">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="F223" s="5"/>
+      <c r="G223" s="6"/>
+      <c r="H223" s="4"/>
+      <c r="I223" s="1"/>
+    </row>
+    <row r="224" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A224" s="1">
+        <v>15</v>
+      </c>
+      <c r="B224" s="3">
+        <v>880</v>
+      </c>
+      <c r="C224" s="2">
+        <v>53</v>
+      </c>
+      <c r="D224" s="3">
+        <v>904</v>
+      </c>
+      <c r="E224" s="3">
+        <v>-0.04</v>
+      </c>
+      <c r="F224" s="5"/>
+      <c r="G224" s="6"/>
+      <c r="H224" s="4"/>
+      <c r="I224" s="1"/>
+    </row>
+    <row r="225" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A225" s="1">
+        <v>16</v>
+      </c>
+      <c r="B225" s="3">
+        <v>902</v>
+      </c>
+      <c r="C225" s="2">
+        <v>53</v>
+      </c>
+      <c r="D225" s="3">
+        <v>926.4</v>
+      </c>
+      <c r="E225" s="3">
+        <v>0.36</v>
+      </c>
+      <c r="F225" s="5"/>
+      <c r="G225" s="6"/>
+      <c r="H225" s="4"/>
+      <c r="I225" s="1"/>
+    </row>
+    <row r="226" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A226" s="1">
+        <v>17</v>
+      </c>
+      <c r="B226" s="3">
+        <v>921</v>
+      </c>
+      <c r="C226" s="2">
+        <v>53</v>
+      </c>
+      <c r="D226" s="3">
+        <v>944</v>
+      </c>
+      <c r="E226" s="3">
+        <v>-1.04</v>
+      </c>
+      <c r="F226" s="5"/>
+      <c r="G226" s="6"/>
+      <c r="H226" s="4"/>
+      <c r="I226" s="1"/>
+    </row>
+    <row r="227" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A227" s="1">
+        <v>18</v>
+      </c>
+      <c r="B227" s="3">
+        <v>876</v>
+      </c>
+      <c r="C227" s="2">
+        <v>53</v>
+      </c>
+      <c r="D227" s="3">
+        <v>903.6</v>
+      </c>
+      <c r="E227" s="3">
+        <v>3.56</v>
+      </c>
+      <c r="F227" s="5"/>
+      <c r="G227" s="6"/>
+      <c r="H227" s="4"/>
+      <c r="I227" s="1"/>
+    </row>
+    <row r="228" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A228" s="1">
+        <v>19</v>
+      </c>
+      <c r="B228" s="3">
+        <v>875</v>
+      </c>
+      <c r="C228" s="2">
+        <v>53</v>
+      </c>
+      <c r="D228" s="3">
+        <v>899.8</v>
+      </c>
+      <c r="E228" s="3">
+        <v>0.76</v>
+      </c>
+      <c r="F228" s="5"/>
+      <c r="G228" s="6"/>
+      <c r="H228" s="4"/>
+      <c r="I228" s="1"/>
+    </row>
+    <row r="229" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A229" s="1">
+        <v>20</v>
+      </c>
+      <c r="B229" s="3">
+        <v>856</v>
+      </c>
+      <c r="C229" s="2">
+        <v>53</v>
+      </c>
+      <c r="D229" s="3">
+        <v>880.6</v>
+      </c>
+      <c r="E229" s="3">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="F229" s="5"/>
+      <c r="G229" s="6"/>
+      <c r="H229" s="4"/>
+      <c r="I229" s="1"/>
+    </row>
+    <row r="230" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A230" s="1">
+        <v>21</v>
+      </c>
+      <c r="B230" s="3">
+        <v>916</v>
+      </c>
+      <c r="C230" s="2">
+        <v>53</v>
+      </c>
+      <c r="D230" s="3">
+        <v>940.4</v>
+      </c>
+      <c r="E230" s="3">
+        <v>0.36</v>
+      </c>
+      <c r="F230" s="5"/>
+      <c r="G230" s="6"/>
+      <c r="H230" s="4"/>
+      <c r="I230" s="1"/>
+    </row>
+    <row r="231" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A231" s="1">
+        <v>22</v>
+      </c>
+      <c r="B231" s="3"/>
+      <c r="C231" s="2"/>
+      <c r="E231" s="1"/>
+      <c r="F231" s="5"/>
+      <c r="G231" s="6"/>
+      <c r="H231" s="1"/>
+      <c r="I231" s="1"/>
+    </row>
+    <row r="232" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A232" s="1">
+        <v>23</v>
+      </c>
+      <c r="B232" s="3"/>
+      <c r="C232" s="2"/>
+      <c r="D232" s="3"/>
+      <c r="E232" s="1"/>
+      <c r="F232" s="5"/>
+      <c r="G232" s="6"/>
+      <c r="H232" s="1"/>
+      <c r="I232" s="1"/>
+    </row>
+    <row r="233" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A233" s="1">
+        <v>24</v>
+      </c>
+      <c r="B233" s="3"/>
+      <c r="C233" s="2"/>
+      <c r="D233" s="3"/>
+      <c r="E233" s="1"/>
+      <c r="F233" s="5"/>
+      <c r="G233" s="6"/>
+      <c r="H233" s="1"/>
+      <c r="I233" s="1"/>
+    </row>
+    <row r="234" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A234" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B234" s="8">
+        <f>SUM(B210:B233)</f>
+        <v>18437</v>
+      </c>
+      <c r="C234" s="9">
+        <f>SUM(C210:C233)</f>
+        <v>1113</v>
+      </c>
+      <c r="D234" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E234" s="8">
+        <v>23.74</v>
+      </c>
+      <c r="F234" s="5"/>
+      <c r="G234" s="6"/>
+      <c r="H234" s="1"/>
+      <c r="I234" s="1"/>
+    </row>
+    <row r="235" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A235" s="1"/>
+      <c r="B235" s="9">
+        <v>18438.84</v>
+      </c>
+      <c r="C235" s="9">
+        <v>504.86</v>
+      </c>
+      <c r="D235" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E235" s="1"/>
+      <c r="F235" s="5"/>
+      <c r="G235" s="6"/>
+      <c r="H235" s="1"/>
+      <c r="I235" s="1"/>
+    </row>
+    <row r="237" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A237" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B237" s="1"/>
+      <c r="C237" s="18">
+        <v>18965.599999999999</v>
+      </c>
+      <c r="D237" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E237" s="7"/>
+      <c r="F237" s="5"/>
+      <c r="G237" s="6"/>
+      <c r="H237" s="1"/>
+    </row>
+    <row r="238" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A238" s="1"/>
+      <c r="B238" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C238" s="1">
+        <v>504.86</v>
+      </c>
+      <c r="D238" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E238" s="3"/>
+      <c r="F238" s="5"/>
+      <c r="G238" s="6"/>
+      <c r="H238" s="1"/>
+    </row>
+    <row r="239" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A239" s="1"/>
+      <c r="B239" s="1"/>
+      <c r="C239" s="1"/>
+      <c r="D239" s="1"/>
+      <c r="E239" s="1"/>
+      <c r="F239" s="5"/>
+      <c r="G239" s="6"/>
+      <c r="H239" s="1"/>
+    </row>
+    <row r="240" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A240" s="1"/>
+      <c r="B240" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C240" s="1"/>
+      <c r="D240" s="1"/>
+      <c r="E240" s="1"/>
+      <c r="F240" s="5"/>
+      <c r="G240" s="6"/>
+      <c r="H240" s="1"/>
+    </row>
+    <row r="241" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A241" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B241" s="8">
+        <v>18460.740000000002</v>
+      </c>
+      <c r="C241" s="1"/>
+      <c r="D241" s="1"/>
+      <c r="E241" s="1"/>
+      <c r="F241" s="5"/>
+      <c r="G241" s="6"/>
+      <c r="H241" s="1"/>
+    </row>
+    <row r="242" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A242" s="1"/>
+      <c r="B242" s="1"/>
+      <c r="C242" s="1"/>
+      <c r="D242" s="1"/>
+      <c r="E242" s="1"/>
+      <c r="F242" s="5"/>
+      <c r="G242" s="6"/>
+      <c r="H242" s="1"/>
+    </row>
+    <row r="243" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A243" s="1"/>
+      <c r="B243" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C243" s="1"/>
+      <c r="D243" s="1"/>
+      <c r="E243" s="1"/>
+      <c r="F243" s="5"/>
+      <c r="G243" s="6"/>
+      <c r="H243" s="1"/>
+    </row>
+    <row r="244" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A244" s="1"/>
+      <c r="B244" s="1"/>
+      <c r="C244" s="9">
+        <v>23.74</v>
+      </c>
+      <c r="D244" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E244" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F244" s="5"/>
+      <c r="G244" s="6"/>
+      <c r="H244" s="1"/>
+    </row>
+    <row r="245" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A245" s="1"/>
+      <c r="B245" s="1"/>
+      <c r="C245" s="9">
+        <v>23.74</v>
+      </c>
+      <c r="D245" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E245" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F245" s="5"/>
+      <c r="G245" s="6"/>
+      <c r="H245" s="1"/>
+    </row>
+    <row r="246" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B246" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C246" s="13"/>
+      <c r="D246" s="13"/>
+      <c r="E246" s="13"/>
+    </row>
+    <row r="247" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B247" s="14"/>
+      <c r="C247" s="14"/>
+      <c r="D247" s="14"/>
+      <c r="E247" s="14"/>
+    </row>
+    <row r="248" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A248" s="1">
+        <v>20</v>
+      </c>
+      <c r="B248" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C248" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D248" s="1"/>
+      <c r="E248" s="1"/>
+      <c r="F248" s="12">
+        <v>45320</v>
+      </c>
+      <c r="G248" s="12"/>
+      <c r="H248" s="12"/>
+      <c r="I248" s="1"/>
+    </row>
+    <row r="249" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A249" s="1"/>
+      <c r="B249" s="1"/>
+      <c r="C249" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D249" s="1"/>
+      <c r="E249" s="1"/>
+      <c r="F249" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G249" s="6"/>
+      <c r="H249" s="1"/>
+      <c r="I249" s="1"/>
+    </row>
+    <row r="250" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A250" s="1"/>
+      <c r="B250" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C250" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D250" s="1"/>
+      <c r="E250" s="1"/>
+      <c r="F250" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G250" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H250" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I250" s="1"/>
+    </row>
+    <row r="251" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A251" s="1">
+        <v>1</v>
+      </c>
+      <c r="B251" s="3">
+        <v>874.99</v>
+      </c>
+      <c r="C251" s="2">
+        <v>62</v>
+      </c>
+      <c r="D251" s="3">
+        <v>902.6</v>
+      </c>
+      <c r="E251" s="3">
+        <v>-0.51</v>
+      </c>
+      <c r="F251" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="G251" s="6">
+        <v>45318</v>
+      </c>
+      <c r="H251" s="4">
+        <v>7627</v>
+      </c>
+      <c r="I251" s="1"/>
+    </row>
+    <row r="252" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A252" s="1">
+        <v>2</v>
+      </c>
+      <c r="B252" s="3">
+        <v>948.02</v>
+      </c>
+      <c r="C252" s="2">
+        <v>62</v>
+      </c>
+      <c r="D252" s="3">
+        <v>975.6</v>
+      </c>
+      <c r="E252" s="3">
+        <v>-0.54</v>
+      </c>
+      <c r="F252" s="5"/>
+      <c r="G252" s="6"/>
+      <c r="H252" s="4"/>
+      <c r="I252" s="1"/>
+    </row>
+    <row r="253" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A253" s="1">
+        <v>3</v>
+      </c>
+      <c r="B253" s="3">
+        <v>894.04</v>
+      </c>
+      <c r="C253" s="2">
+        <v>62</v>
+      </c>
+      <c r="D253" s="3">
+        <v>918.6</v>
+      </c>
+      <c r="E253" s="3">
+        <v>-3.56</v>
+      </c>
+      <c r="F253" s="5"/>
+      <c r="G253" s="6"/>
+      <c r="H253" s="4"/>
+      <c r="I253" s="1"/>
+    </row>
+    <row r="254" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A254" s="1">
+        <v>4</v>
+      </c>
+      <c r="B254" s="3">
+        <v>927.15</v>
+      </c>
+      <c r="C254" s="2">
+        <v>62</v>
+      </c>
+      <c r="D254" s="3">
+        <v>954.6</v>
+      </c>
+      <c r="E254" s="3">
+        <v>-0.67</v>
+      </c>
+      <c r="F254" s="5"/>
+      <c r="G254" s="6"/>
+      <c r="H254" s="4"/>
+      <c r="I254" s="1"/>
+    </row>
+    <row r="255" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A255" s="1">
+        <v>5</v>
+      </c>
+      <c r="B255" s="3">
+        <v>874.99</v>
+      </c>
+      <c r="C255" s="2">
+        <v>62</v>
+      </c>
+      <c r="D255" s="3">
+        <v>902.8</v>
+      </c>
+      <c r="E255" s="3">
+        <v>-0.31</v>
+      </c>
+      <c r="F255" s="5"/>
+      <c r="G255" s="6"/>
+      <c r="H255" s="4"/>
+      <c r="I255" s="1"/>
+    </row>
+    <row r="256" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A256" s="1">
+        <v>6</v>
+      </c>
+      <c r="B256" s="3">
+        <v>873.17</v>
+      </c>
+      <c r="C256" s="2">
+        <v>62</v>
+      </c>
+      <c r="D256" s="3">
+        <v>899</v>
+      </c>
+      <c r="E256" s="3">
+        <v>-2.29</v>
+      </c>
+      <c r="F256" s="5"/>
+      <c r="G256" s="6"/>
+      <c r="H256" s="4"/>
+      <c r="I256" s="1"/>
+    </row>
+    <row r="257" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A257" s="1">
+        <v>7</v>
+      </c>
+      <c r="B257" s="3">
+        <v>815.11</v>
+      </c>
+      <c r="C257" s="2">
+        <v>62</v>
+      </c>
+      <c r="D257" s="3">
+        <v>840.2</v>
+      </c>
+      <c r="E257" s="3">
+        <v>-3.03</v>
+      </c>
+      <c r="F257" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G257" s="6">
+        <v>45318</v>
+      </c>
+      <c r="H257" s="4">
+        <v>7625</v>
+      </c>
+      <c r="I257" s="1"/>
+    </row>
+    <row r="258" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A258" s="1">
+        <v>8</v>
+      </c>
+      <c r="B258" s="3">
+        <v>949.83</v>
+      </c>
+      <c r="C258" s="2">
+        <v>62</v>
+      </c>
+      <c r="D258" s="3">
+        <v>975.6</v>
+      </c>
+      <c r="E258" s="3">
+        <v>-2.35</v>
+      </c>
+      <c r="F258" s="5"/>
+      <c r="G258" s="6"/>
+      <c r="H258" s="4"/>
+      <c r="I258" s="1"/>
+    </row>
+    <row r="259" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A259" s="1">
+        <v>9</v>
+      </c>
+      <c r="B259" s="3">
+        <v>815.87</v>
+      </c>
+      <c r="C259" s="2">
+        <v>62</v>
+      </c>
+      <c r="D259" s="3">
+        <v>841.8</v>
+      </c>
+      <c r="E259" s="3">
+        <v>-2.19</v>
+      </c>
+      <c r="F259" s="5"/>
+      <c r="G259" s="6"/>
+      <c r="H259" s="4"/>
+      <c r="I259" s="1"/>
+    </row>
+    <row r="260" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A260" s="1">
+        <v>10</v>
+      </c>
+      <c r="B260" s="3">
+        <v>869.55</v>
+      </c>
+      <c r="C260" s="2">
+        <v>62</v>
+      </c>
+      <c r="D260" s="3">
+        <v>896.6</v>
+      </c>
+      <c r="E260" s="3">
+        <v>-1.07</v>
+      </c>
+      <c r="F260" s="5"/>
+      <c r="G260" s="6"/>
+      <c r="H260" s="4"/>
+      <c r="I260" s="1"/>
+    </row>
+    <row r="261" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A261" s="1">
+        <v>11</v>
+      </c>
+      <c r="B261" s="3">
+        <v>877.71</v>
+      </c>
+      <c r="C261" s="2">
+        <v>62</v>
+      </c>
+      <c r="D261" s="3">
+        <v>905.6</v>
+      </c>
+      <c r="E261" s="3">
+        <v>-0.23</v>
+      </c>
+      <c r="F261" s="5"/>
+      <c r="G261" s="6"/>
+      <c r="H261" s="4"/>
+      <c r="I261" s="1"/>
+    </row>
+    <row r="262" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A262" s="1">
+        <v>12</v>
+      </c>
+      <c r="B262" s="3">
+        <v>889.96</v>
+      </c>
+      <c r="C262" s="2">
+        <v>62</v>
+      </c>
+      <c r="D262" s="3">
+        <v>895</v>
+      </c>
+      <c r="E262" s="3">
+        <v>-23.08</v>
+      </c>
+      <c r="F262" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G262" s="6">
+        <v>45318</v>
+      </c>
+      <c r="H262" s="4">
+        <v>7623</v>
+      </c>
+      <c r="I262" s="1"/>
+    </row>
+    <row r="263" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A263" s="1">
+        <v>13</v>
+      </c>
+      <c r="B263" s="3">
+        <v>879.52</v>
+      </c>
+      <c r="C263" s="2">
+        <v>62</v>
+      </c>
+      <c r="D263" s="3">
+        <v>905.4</v>
+      </c>
+      <c r="E263" s="3">
+        <v>-2.2400000000000002</v>
+      </c>
+      <c r="F263" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="G263" s="6">
+        <v>45320</v>
+      </c>
+      <c r="H263" s="4">
+        <v>7634</v>
+      </c>
+      <c r="I263" s="1"/>
+    </row>
+    <row r="264" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A264" s="1">
+        <v>14</v>
+      </c>
+      <c r="B264" s="3">
+        <v>814.66</v>
+      </c>
+      <c r="C264" s="2">
+        <v>62</v>
+      </c>
+      <c r="D264" s="3">
+        <v>840.8</v>
+      </c>
+      <c r="E264" s="3">
+        <v>-1.98</v>
+      </c>
+      <c r="F264" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G264" s="6">
+        <v>45320</v>
+      </c>
+      <c r="H264" s="4">
+        <v>7631</v>
+      </c>
+      <c r="I264" s="1"/>
+    </row>
+    <row r="265" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A265" s="1">
+        <v>15</v>
+      </c>
+      <c r="B265" s="3">
+        <v>910.82</v>
+      </c>
+      <c r="C265" s="2">
+        <v>62</v>
+      </c>
+      <c r="D265" s="3">
+        <v>935.6</v>
+      </c>
+      <c r="E265" s="3">
+        <v>-3.34</v>
+      </c>
+      <c r="F265" s="5"/>
+      <c r="G265" s="6"/>
+      <c r="H265" s="4"/>
+      <c r="I265" s="1"/>
+    </row>
+    <row r="266" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A266" s="1">
+        <v>16</v>
+      </c>
+      <c r="B266" s="3">
+        <v>894.04</v>
+      </c>
+      <c r="C266" s="2">
+        <v>62</v>
+      </c>
+      <c r="D266" s="3">
+        <v>920.2</v>
+      </c>
+      <c r="E266" s="3">
+        <v>-1.96</v>
+      </c>
+      <c r="F266" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="G266" s="6">
+        <v>45320</v>
+      </c>
+      <c r="H266" s="4">
+        <v>7634</v>
+      </c>
+      <c r="I266" s="1"/>
+    </row>
+    <row r="267" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A267" s="1">
+        <v>17</v>
+      </c>
+      <c r="B267" s="3">
+        <v>903.57</v>
+      </c>
+      <c r="C267" s="2">
+        <v>62</v>
+      </c>
+      <c r="D267" s="3">
+        <v>935.6</v>
+      </c>
+      <c r="E267" s="3">
+        <v>3.91</v>
+      </c>
+      <c r="F267" s="5"/>
+      <c r="G267" s="6"/>
+      <c r="H267" s="4"/>
+      <c r="I267" s="1"/>
+    </row>
+    <row r="268" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A268" s="1">
+        <v>18</v>
+      </c>
+      <c r="B268" s="3">
+        <v>851.4</v>
+      </c>
+      <c r="C268" s="2">
+        <v>62</v>
+      </c>
+      <c r="D268" s="3">
+        <v>880</v>
+      </c>
+      <c r="E268" s="3">
+        <v>0.48</v>
+      </c>
+      <c r="F268" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G268" s="6">
+        <v>45318</v>
+      </c>
+      <c r="H268" s="4">
+        <v>7624</v>
+      </c>
+      <c r="I268" s="1"/>
+    </row>
+    <row r="269" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A269" s="1">
+        <v>19</v>
+      </c>
+      <c r="B269" s="3">
+        <v>861.83</v>
+      </c>
+      <c r="C269" s="2">
+        <v>62</v>
+      </c>
+      <c r="D269" s="3">
+        <v>889</v>
+      </c>
+      <c r="E269" s="3">
+        <v>-0.95</v>
+      </c>
+      <c r="F269" s="5"/>
+      <c r="G269" s="6"/>
+      <c r="H269" s="4"/>
+      <c r="I269" s="1"/>
+    </row>
+    <row r="270" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A270" s="1">
+        <v>20</v>
+      </c>
+      <c r="B270" s="3">
+        <v>934.31</v>
+      </c>
+      <c r="C270" s="2">
+        <v>62</v>
+      </c>
+      <c r="D270" s="3">
+        <v>966</v>
+      </c>
+      <c r="E270" s="3">
+        <v>3.57</v>
+      </c>
+      <c r="F270" s="5"/>
+      <c r="G270" s="6"/>
+      <c r="H270" s="4"/>
+      <c r="I270" s="1"/>
+    </row>
+    <row r="271" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A271" s="1">
+        <v>21</v>
+      </c>
+      <c r="B271" s="3">
+        <v>855.48</v>
+      </c>
+      <c r="C271" s="2">
+        <v>62</v>
+      </c>
+      <c r="D271" s="3">
+        <v>882.4</v>
+      </c>
+      <c r="E271" s="3">
+        <v>-1.2</v>
+      </c>
+      <c r="F271" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G271" s="6">
+        <v>45319</v>
+      </c>
+      <c r="H271" s="4">
+        <v>7629</v>
+      </c>
+      <c r="I271" s="1"/>
+    </row>
+    <row r="272" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A272" s="1">
+        <v>22</v>
+      </c>
+      <c r="B272" s="3"/>
+      <c r="C272" s="2"/>
+      <c r="E272" s="1"/>
+      <c r="F272" s="5"/>
+      <c r="G272" s="6"/>
+      <c r="H272" s="1"/>
+      <c r="I272" s="1"/>
+    </row>
+    <row r="273" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A273" s="1">
+        <v>23</v>
+      </c>
+      <c r="B273" s="3"/>
+      <c r="C273" s="2"/>
+      <c r="D273" s="3"/>
+      <c r="E273" s="1"/>
+      <c r="F273" s="5"/>
+      <c r="G273" s="6"/>
+      <c r="H273" s="1"/>
+      <c r="I273" s="1"/>
+    </row>
+    <row r="274" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A274" s="1">
+        <v>24</v>
+      </c>
+      <c r="B274" s="3"/>
+      <c r="C274" s="2"/>
+      <c r="D274" s="3"/>
+      <c r="E274" s="1"/>
+      <c r="F274" s="5"/>
+      <c r="G274" s="6"/>
+      <c r="H274" s="1"/>
+      <c r="I274" s="1"/>
+    </row>
+    <row r="275" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A275" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B275" s="8">
+        <f>SUM(B251:B274)</f>
+        <v>18516.02</v>
+      </c>
+      <c r="C275" s="9">
+        <f>SUM(C251:C274)</f>
+        <v>1302</v>
+      </c>
+      <c r="D275" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E275" s="8">
+        <v>-43.61</v>
+      </c>
+      <c r="F275" s="5"/>
+      <c r="G275" s="6"/>
+      <c r="H275" s="1"/>
+      <c r="I275" s="1"/>
+    </row>
+    <row r="276" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A276" s="1"/>
+      <c r="B276" s="9">
+        <v>18515.95</v>
+      </c>
+      <c r="C276" s="9">
+        <v>590.59</v>
+      </c>
+      <c r="D276" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E276" s="1"/>
+      <c r="F276" s="5"/>
+      <c r="G276" s="6"/>
+      <c r="H276" s="1"/>
+      <c r="I276" s="1"/>
+    </row>
+    <row r="278" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A278" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B278" s="1"/>
+      <c r="C278" s="19">
+        <v>19063</v>
+      </c>
+      <c r="D278" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E278" s="7"/>
+      <c r="F278" s="5"/>
+      <c r="G278" s="6"/>
+      <c r="H278" s="1"/>
+    </row>
+    <row r="279" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A279" s="1"/>
+      <c r="B279" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C279" s="9">
+        <v>590.59</v>
+      </c>
+      <c r="D279" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E279" s="3"/>
+      <c r="F279" s="5"/>
+      <c r="G279" s="6"/>
+      <c r="H279" s="1"/>
+    </row>
+    <row r="280" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A280" s="1"/>
+      <c r="B280" s="1"/>
+      <c r="C280" s="1"/>
+      <c r="D280" s="1"/>
+      <c r="E280" s="1"/>
+      <c r="F280" s="5"/>
+      <c r="G280" s="6"/>
+      <c r="H280" s="1"/>
+    </row>
+    <row r="281" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A281" s="1"/>
+      <c r="B281" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C281" s="1"/>
+      <c r="D281" s="1"/>
+      <c r="E281" s="1"/>
+      <c r="F281" s="5"/>
+      <c r="G281" s="6"/>
+      <c r="H281" s="1"/>
+    </row>
+    <row r="282" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A282" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B282" s="8">
+        <v>18472.41</v>
+      </c>
+      <c r="C282" s="1"/>
+      <c r="D282" s="1"/>
+      <c r="E282" s="1"/>
+      <c r="F282" s="5"/>
+      <c r="G282" s="6"/>
+      <c r="H282" s="1"/>
+    </row>
+    <row r="283" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A283" s="1"/>
+      <c r="B283" s="1"/>
+      <c r="C283" s="1"/>
+      <c r="D283" s="1"/>
+      <c r="E283" s="1"/>
+      <c r="F283" s="5"/>
+      <c r="G283" s="6"/>
+      <c r="H283" s="1"/>
+    </row>
+    <row r="284" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A284" s="1"/>
+      <c r="B284" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C284" s="1"/>
+      <c r="D284" s="1"/>
+      <c r="E284" s="1"/>
+      <c r="F284" s="5"/>
+      <c r="G284" s="6"/>
+      <c r="H284" s="1"/>
+    </row>
+    <row r="285" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A285" s="1"/>
+      <c r="B285" s="1"/>
+      <c r="C285" s="9">
+        <v>-43.61</v>
+      </c>
+      <c r="D285" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E285" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F285" s="5"/>
+      <c r="G285" s="6"/>
+      <c r="H285" s="1"/>
+    </row>
+    <row r="286" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A286" s="1"/>
+      <c r="B286" s="1"/>
+      <c r="C286" s="9">
+        <v>-43.61</v>
+      </c>
+      <c r="D286" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E286" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F286" s="5"/>
+      <c r="G286" s="6"/>
+      <c r="H286" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="F94:H94"/>
+  <mergeCells count="14">
+    <mergeCell ref="F207:H207"/>
+    <mergeCell ref="B246:E247"/>
+    <mergeCell ref="F248:H248"/>
+    <mergeCell ref="B123:E124"/>
+    <mergeCell ref="F125:H125"/>
+    <mergeCell ref="B164:E165"/>
+    <mergeCell ref="F166:H166"/>
+    <mergeCell ref="B205:E206"/>
+    <mergeCell ref="F84:H84"/>
     <mergeCell ref="B1:E2"/>
-    <mergeCell ref="B46:E47"/>
+    <mergeCell ref="B41:E42"/>
     <mergeCell ref="F3:H3"/>
-    <mergeCell ref="F48:H48"/>
-    <mergeCell ref="B92:E93"/>
+    <mergeCell ref="F43:H43"/>
+    <mergeCell ref="B82:E83"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
